--- a/ModelList.xlsx
+++ b/ModelList.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
+    <sheet name="BBC_CoordianteSearch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1333">
   <si>
     <t>index</t>
   </si>
@@ -4012,13 +4013,19 @@
   </si>
   <si>
     <t>-1.8200000E+01</t>
+  </si>
+  <si>
+    <t>ref_solution</t>
+  </si>
+  <si>
+    <t>my_solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4077,6 +4084,17 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4098,7 +4116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -4109,6 +4127,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4394,8 +4421,8 @@
   </sheetPr>
   <dimension ref="A1:J503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18171,4 +18198,350 @@
     <oddFooter>&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>133365526216905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12">
+        <v>100</v>
+      </c>
+      <c r="E3" s="12">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12">
+        <v>100</v>
+      </c>
+      <c r="G3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>4.6341463000000003</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4.6341463414634099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>6.1351351000000003</v>
+      </c>
+      <c r="G5" s="11">
+        <v>6.1351351351351298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.14806213966964399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.1818502448589701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.9283718475499999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.39788736000000002</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.39814163441817602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2.8365804444687E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>-1.0316285000000001</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1.0065865965105301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>-1.0316285000000001</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-1.0065865965105301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.19978661</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.201204134406712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ModelList.xlsx
+++ b/ModelList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="1337">
   <si>
     <t>index</t>
   </si>
@@ -4019,6 +4019,18 @@
   </si>
   <si>
     <t>my_solution</t>
+  </si>
+  <si>
+    <t>Algorithm Application</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>随机取点很容易超出界限，初始给的点则是0，判断预测值质量是需要注意ratio的算法</t>
+  </si>
+  <si>
+    <t>完全崩盘</t>
   </si>
 </sst>
 </file>
@@ -4421,13 +4433,18 @@
   </sheetPr>
   <dimension ref="A1:J503"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="J242" sqref="J242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4452,8 +4469,14 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -4479,7 +4502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4505,7 +4528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -4531,7 +4554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -4557,7 +4580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -4583,7 +4606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -4609,7 +4632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -4635,7 +4658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
@@ -4661,7 +4684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -4687,7 +4710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -4713,7 +4736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -4739,7 +4762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -4765,7 +4788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
@@ -4791,7 +4814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -4817,7 +4840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -4843,7 +4866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -4869,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -4895,7 +4918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
@@ -4921,7 +4944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
@@ -4947,7 +4970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>61</v>
       </c>
@@ -4973,7 +4996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -4999,7 +5022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
@@ -5025,7 +5048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>70</v>
       </c>
@@ -5051,7 +5074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>72</v>
       </c>
@@ -5077,7 +5100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
@@ -5103,7 +5126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -5129,7 +5152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>82</v>
       </c>
@@ -5155,7 +5178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>84</v>
       </c>
@@ -5181,7 +5204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
@@ -5207,7 +5230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>12</v>
       </c>
@@ -5233,7 +5256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>89</v>
       </c>
@@ -5259,7 +5282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>91</v>
       </c>
@@ -5285,7 +5308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>93</v>
       </c>
@@ -5311,7 +5334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>95</v>
       </c>
@@ -5337,7 +5360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>97</v>
       </c>
@@ -5363,7 +5386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>99</v>
       </c>
@@ -5389,7 +5412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>101</v>
       </c>
@@ -5415,7 +5438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>103</v>
       </c>
@@ -5441,7 +5464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>105</v>
       </c>
@@ -5467,7 +5490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>107</v>
       </c>
@@ -5493,7 +5516,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>109</v>
       </c>
@@ -5519,7 +5542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>111</v>
       </c>
@@ -5545,7 +5568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>113</v>
       </c>
@@ -5571,7 +5594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>115</v>
       </c>
@@ -5597,7 +5620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>117</v>
       </c>
@@ -5623,7 +5646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>120</v>
       </c>
@@ -5649,7 +5672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>122</v>
       </c>
@@ -5675,7 +5698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>124</v>
       </c>
@@ -5701,7 +5724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>126</v>
       </c>
@@ -5727,7 +5750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>65</v>
       </c>
@@ -5753,7 +5776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>129</v>
       </c>
@@ -5779,7 +5802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>131</v>
       </c>
@@ -5805,7 +5828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>133</v>
       </c>
@@ -5831,7 +5854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>135</v>
       </c>
@@ -5857,7 +5880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>137</v>
       </c>
@@ -5883,7 +5906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>139</v>
       </c>
@@ -5909,7 +5932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>141</v>
       </c>
@@ -5935,7 +5958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>143</v>
       </c>
@@ -5961,7 +5984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>145</v>
       </c>
@@ -5987,7 +6010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>147</v>
       </c>
@@ -6013,7 +6036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>150</v>
       </c>
@@ -6039,7 +6062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>152</v>
       </c>
@@ -6065,7 +6088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>154</v>
       </c>
@@ -6091,7 +6114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>156</v>
       </c>
@@ -6117,7 +6140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>158</v>
       </c>
@@ -6143,7 +6166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>160</v>
       </c>
@@ -6169,7 +6192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>162</v>
       </c>
@@ -6195,7 +6218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>164</v>
       </c>
@@ -6221,7 +6244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>166</v>
       </c>
@@ -6247,7 +6270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>168</v>
       </c>
@@ -6273,7 +6296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
@@ -6299,7 +6322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>172</v>
       </c>
@@ -6325,7 +6348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>174</v>
       </c>
@@ -6351,7 +6374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>176</v>
       </c>
@@ -6377,7 +6400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>178</v>
       </c>
@@ -6403,7 +6426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>180</v>
       </c>
@@ -6429,7 +6452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>182</v>
       </c>
@@ -6455,7 +6478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>184</v>
       </c>
@@ -6481,7 +6504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>186</v>
       </c>
@@ -6507,7 +6530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>188</v>
       </c>
@@ -6533,7 +6556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>190</v>
       </c>
@@ -6559,7 +6582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>192</v>
       </c>
@@ -6585,7 +6608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>194</v>
       </c>
@@ -6611,7 +6634,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>196</v>
       </c>
@@ -6637,7 +6660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
@@ -6663,7 +6686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>200</v>
       </c>
@@ -6689,7 +6712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>202</v>
       </c>
@@ -6715,7 +6738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>204</v>
       </c>
@@ -6741,7 +6764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>206</v>
       </c>
@@ -6767,7 +6790,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>208</v>
       </c>
@@ -6793,7 +6816,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>212</v>
       </c>
@@ -6819,7 +6842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>215</v>
       </c>
@@ -6845,7 +6868,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>218</v>
       </c>
@@ -6871,7 +6894,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>221</v>
       </c>
@@ -6897,7 +6920,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>224</v>
       </c>
@@ -6923,7 +6946,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>227</v>
       </c>
@@ -6949,7 +6972,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>230</v>
       </c>
@@ -6975,7 +6998,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>233</v>
       </c>
@@ -7001,7 +7024,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>236</v>
       </c>
@@ -7027,7 +7050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>26</v>
       </c>
@@ -7053,7 +7076,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>241</v>
       </c>
@@ -7079,7 +7102,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>244</v>
       </c>
@@ -7105,7 +7128,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>247</v>
       </c>
@@ -7131,7 +7154,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>250</v>
       </c>
@@ -7157,7 +7180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>253</v>
       </c>
@@ -7183,7 +7206,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>256</v>
       </c>
@@ -7209,7 +7232,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>259</v>
       </c>
@@ -7235,7 +7258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>262</v>
       </c>
@@ -7261,7 +7284,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>265</v>
       </c>
@@ -7287,7 +7310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>268</v>
       </c>
@@ -7313,7 +7336,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>271</v>
       </c>
@@ -7339,7 +7362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>274</v>
       </c>
@@ -7365,7 +7388,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>277</v>
       </c>
@@ -7391,7 +7414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>280</v>
       </c>
@@ -7417,7 +7440,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>283</v>
       </c>
@@ -7443,7 +7466,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>286</v>
       </c>
@@ -7469,7 +7492,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>289</v>
       </c>
@@ -7495,7 +7518,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>292</v>
       </c>
@@ -7521,7 +7544,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>295</v>
       </c>
@@ -7547,7 +7570,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>298</v>
       </c>
@@ -7573,7 +7596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>301</v>
       </c>
@@ -7599,7 +7622,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>304</v>
       </c>
@@ -7625,7 +7648,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>307</v>
       </c>
@@ -7651,7 +7674,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>310</v>
       </c>
@@ -7677,7 +7700,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>313</v>
       </c>
@@ -7703,7 +7726,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>316</v>
       </c>
@@ -7729,7 +7752,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>319</v>
       </c>
@@ -7755,7 +7778,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>322</v>
       </c>
@@ -7781,7 +7804,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>325</v>
       </c>
@@ -7807,7 +7830,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>328</v>
       </c>
@@ -7833,7 +7856,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>331</v>
       </c>
@@ -7859,7 +7882,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>334</v>
       </c>
@@ -7885,7 +7908,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>337</v>
       </c>
@@ -7911,7 +7934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>340</v>
       </c>
@@ -7937,7 +7960,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>343</v>
       </c>
@@ -7963,7 +7986,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>346</v>
       </c>
@@ -7989,7 +8012,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>349</v>
       </c>
@@ -8015,7 +8038,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>352</v>
       </c>
@@ -8041,7 +8064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>355</v>
       </c>
@@ -8067,7 +8090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>358</v>
       </c>
@@ -8093,7 +8116,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>361</v>
       </c>
@@ -8119,7 +8142,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>364</v>
       </c>
@@ -8145,7 +8168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>367</v>
       </c>
@@ -8171,7 +8194,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>370</v>
       </c>
@@ -8197,7 +8220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>373</v>
       </c>
@@ -8223,7 +8246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>376</v>
       </c>
@@ -8249,7 +8272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>379</v>
       </c>
@@ -8275,7 +8298,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>382</v>
       </c>
@@ -8301,7 +8324,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>385</v>
       </c>
@@ -8327,7 +8350,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>388</v>
       </c>
@@ -8353,7 +8376,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>391</v>
       </c>
@@ -8379,7 +8402,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>394</v>
       </c>
@@ -8405,7 +8428,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>397</v>
       </c>
@@ -8431,7 +8454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>400</v>
       </c>
@@ -8457,7 +8480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>403</v>
       </c>
@@ -8483,7 +8506,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>405</v>
       </c>
@@ -8509,7 +8532,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>407</v>
       </c>
@@ -8535,7 +8558,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>409</v>
       </c>
@@ -8561,7 +8584,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>411</v>
       </c>
@@ -8587,7 +8610,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>413</v>
       </c>
@@ -8613,7 +8636,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>415</v>
       </c>
@@ -8639,7 +8662,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>417</v>
       </c>
@@ -8665,7 +8688,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>419</v>
       </c>
@@ -8691,7 +8714,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>421</v>
       </c>
@@ -8717,7 +8740,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>423</v>
       </c>
@@ -8743,7 +8766,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>425</v>
       </c>
@@ -8769,7 +8792,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>427</v>
       </c>
@@ -8795,7 +8818,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>429</v>
       </c>
@@ -8827,7 +8850,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>435</v>
       </c>
@@ -8859,7 +8882,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>438</v>
       </c>
@@ -8891,7 +8914,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>441</v>
       </c>
@@ -8923,7 +8946,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>444</v>
       </c>
@@ -8955,7 +8978,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>447</v>
       </c>
@@ -8987,7 +9010,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>450</v>
       </c>
@@ -9019,7 +9042,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>453</v>
       </c>
@@ -9051,7 +9074,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>456</v>
       </c>
@@ -9083,7 +9106,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>459</v>
       </c>
@@ -9115,7 +9138,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>462</v>
       </c>
@@ -9147,7 +9170,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>465</v>
       </c>
@@ -9179,7 +9202,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>468</v>
       </c>
@@ -9211,7 +9234,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>471</v>
       </c>
@@ -9243,7 +9266,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>474</v>
       </c>
@@ -9275,7 +9298,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>477</v>
       </c>
@@ -9307,7 +9330,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>480</v>
       </c>
@@ -9339,7 +9362,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>483</v>
       </c>
@@ -9371,7 +9394,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>486</v>
       </c>
@@ -9403,7 +9426,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>489</v>
       </c>
@@ -9435,7 +9458,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>492</v>
       </c>
@@ -9467,7 +9490,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>495</v>
       </c>
@@ -9499,7 +9522,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>498</v>
       </c>
@@ -9531,7 +9554,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>501</v>
       </c>
@@ -9563,7 +9586,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>504</v>
       </c>
@@ -9595,7 +9618,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>507</v>
       </c>
@@ -9627,7 +9650,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>510</v>
       </c>
@@ -9659,7 +9682,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>513</v>
       </c>
@@ -9691,7 +9714,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>516</v>
       </c>
@@ -9723,7 +9746,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>519</v>
       </c>
@@ -9755,7 +9778,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>522</v>
       </c>
@@ -9787,7 +9810,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>525</v>
       </c>
@@ -9819,7 +9842,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>119</v>
       </c>
@@ -9851,7 +9874,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>530</v>
       </c>
@@ -9883,7 +9906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>533</v>
       </c>
@@ -9915,7 +9938,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>536</v>
       </c>
@@ -9947,7 +9970,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>539</v>
       </c>
@@ -9979,7 +10002,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>542</v>
       </c>
@@ -10011,7 +10034,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>545</v>
       </c>
@@ -10043,7 +10066,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>548</v>
       </c>
@@ -10075,7 +10098,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>551</v>
       </c>
@@ -10107,7 +10130,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>554</v>
       </c>
@@ -10139,7 +10162,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>557</v>
       </c>
@@ -10171,7 +10194,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>560</v>
       </c>
@@ -10203,7 +10226,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>563</v>
       </c>
@@ -10235,7 +10258,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>566</v>
       </c>
@@ -10267,7 +10290,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>569</v>
       </c>
@@ -10299,7 +10322,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>572</v>
       </c>
@@ -10331,7 +10354,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>575</v>
       </c>
@@ -10363,7 +10386,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>578</v>
       </c>
@@ -10395,7 +10418,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>581</v>
       </c>
@@ -10427,7 +10450,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>584</v>
       </c>
@@ -10459,7 +10482,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>587</v>
       </c>
@@ -10491,7 +10514,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>590</v>
       </c>
@@ -10523,7 +10546,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>593</v>
       </c>
@@ -10555,7 +10578,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>596</v>
       </c>
@@ -10587,7 +10610,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>599</v>
       </c>
@@ -10619,7 +10642,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>602</v>
       </c>
@@ -10651,7 +10674,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>605</v>
       </c>
@@ -10683,7 +10706,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>608</v>
       </c>
@@ -10715,7 +10738,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>611</v>
       </c>
@@ -10747,7 +10770,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>614</v>
       </c>
@@ -10779,7 +10802,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>617</v>
       </c>
@@ -10811,7 +10834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>620</v>
       </c>
@@ -10843,7 +10866,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>623</v>
       </c>
@@ -10875,7 +10898,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>626</v>
       </c>
@@ -10901,7 +10924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>628</v>
       </c>
@@ -10926,8 +10949,11 @@
       <c r="H235" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J235" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>630</v>
       </c>
@@ -10953,7 +10979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>632</v>
       </c>
@@ -10979,7 +11005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>634</v>
       </c>
@@ -11005,7 +11031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>636</v>
       </c>
@@ -11031,7 +11057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>638</v>
       </c>
@@ -11057,7 +11083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>640</v>
       </c>
@@ -11083,7 +11109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>642</v>
       </c>
@@ -11108,8 +11134,11 @@
       <c r="H242" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J242" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>645</v>
       </c>
@@ -11135,7 +11164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>648</v>
       </c>
@@ -11161,7 +11190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>651</v>
       </c>
@@ -11187,7 +11216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>653</v>
       </c>
@@ -11213,7 +11242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>655</v>
       </c>
@@ -11239,7 +11268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>657</v>
       </c>
@@ -11265,7 +11294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>660</v>
       </c>
@@ -11291,7 +11320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>663</v>
       </c>
@@ -11317,7 +11346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>666</v>
       </c>
@@ -11343,7 +11372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>668</v>
       </c>
@@ -11369,7 +11398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>671</v>
       </c>
@@ -11395,7 +11424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>674</v>
       </c>
@@ -11421,7 +11450,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>678</v>
       </c>
@@ -11447,7 +11476,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>681</v>
       </c>
@@ -11473,7 +11502,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>684</v>
       </c>
@@ -11499,7 +11528,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>686</v>
       </c>
@@ -11525,7 +11554,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>688</v>
       </c>
@@ -11551,7 +11580,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>691</v>
       </c>
@@ -11577,7 +11606,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>694</v>
       </c>
@@ -11603,7 +11632,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>697</v>
       </c>
@@ -11629,7 +11658,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>700</v>
       </c>
@@ -11655,7 +11684,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>703</v>
       </c>
@@ -11681,7 +11710,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>705</v>
       </c>
@@ -11707,7 +11736,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>707</v>
       </c>
@@ -11733,7 +11762,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>710</v>
       </c>
@@ -11759,7 +11788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>713</v>
       </c>
@@ -11785,7 +11814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>716</v>
       </c>
@@ -11811,7 +11840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>719</v>
       </c>
@@ -11837,7 +11866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>722</v>
       </c>
@@ -11863,7 +11892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>724</v>
       </c>
@@ -11889,7 +11918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>727</v>
       </c>
@@ -11915,7 +11944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>730</v>
       </c>
@@ -11941,7 +11970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>733</v>
       </c>
@@ -11967,7 +11996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>735</v>
       </c>
@@ -11993,7 +12022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>737</v>
       </c>
@@ -12019,7 +12048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>739</v>
       </c>
@@ -12045,7 +12074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>741</v>
       </c>
@@ -12071,7 +12100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>744</v>
       </c>
@@ -12097,7 +12126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>746</v>
       </c>
@@ -12123,7 +12152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>749</v>
       </c>
@@ -12149,7 +12178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>752</v>
       </c>
@@ -12175,7 +12204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>755</v>
       </c>
@@ -12201,7 +12230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>758</v>
       </c>
@@ -12227,7 +12256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>760</v>
       </c>
@@ -12253,7 +12282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>763</v>
       </c>
@@ -12279,7 +12308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>765</v>
       </c>
@@ -12305,7 +12334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>767</v>
       </c>
@@ -12331,7 +12360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>769</v>
       </c>
@@ -12357,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>771</v>
       </c>
@@ -12383,7 +12412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>773</v>
       </c>
@@ -12409,7 +12438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>775</v>
       </c>
@@ -12435,7 +12464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>777</v>
       </c>
@@ -12461,7 +12490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>780</v>
       </c>
@@ -12487,7 +12516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>782</v>
       </c>
@@ -12513,7 +12542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>785</v>
       </c>
@@ -12539,7 +12568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>787</v>
       </c>
@@ -12565,7 +12594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>790</v>
       </c>
@@ -12591,7 +12620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>792</v>
       </c>
@@ -12617,7 +12646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>149</v>
       </c>
@@ -12643,7 +12672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>797</v>
       </c>
@@ -12669,7 +12698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>799</v>
       </c>
@@ -12695,7 +12724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>802</v>
       </c>
@@ -12721,7 +12750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>805</v>
       </c>
@@ -12747,7 +12776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>807</v>
       </c>
@@ -12773,7 +12802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>809</v>
       </c>
@@ -12799,7 +12828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>811</v>
       </c>
@@ -12825,7 +12854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>814</v>
       </c>
@@ -12851,7 +12880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>817</v>
       </c>
@@ -12877,7 +12906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>820</v>
       </c>
@@ -12903,7 +12932,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>823</v>
       </c>
@@ -12929,7 +12958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>826</v>
       </c>
@@ -12955,7 +12984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>829</v>
       </c>
@@ -12981,7 +13010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>831</v>
       </c>
@@ -13007,7 +13036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>834</v>
       </c>
@@ -13033,7 +13062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>836</v>
       </c>
@@ -13059,7 +13088,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>840</v>
       </c>
@@ -13085,7 +13114,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>843</v>
       </c>
@@ -13111,7 +13140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>846</v>
       </c>
@@ -13137,7 +13166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>848</v>
       </c>
@@ -13163,7 +13192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>851</v>
       </c>
@@ -13189,7 +13218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>854</v>
       </c>
@@ -13215,7 +13244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>857</v>
       </c>
@@ -13241,7 +13270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>860</v>
       </c>
@@ -13267,7 +13296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>863</v>
       </c>
@@ -13293,7 +13322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>866</v>
       </c>
@@ -13319,7 +13348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>869</v>
       </c>
@@ -13345,7 +13374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>872</v>
       </c>
@@ -13371,7 +13400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>875</v>
       </c>
@@ -13397,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>878</v>
       </c>
@@ -13423,7 +13452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>881</v>
       </c>
@@ -13449,7 +13478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>884</v>
       </c>
@@ -13475,7 +13504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>887</v>
       </c>
@@ -13501,7 +13530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>890</v>
       </c>
@@ -13527,7 +13556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>893</v>
       </c>
@@ -13553,7 +13582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>896</v>
       </c>
@@ -13579,7 +13608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>899</v>
       </c>
@@ -13605,7 +13634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>902</v>
       </c>
@@ -13631,7 +13660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>905</v>
       </c>
@@ -13657,7 +13686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>908</v>
       </c>
@@ -13683,7 +13712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>911</v>
       </c>
@@ -13709,7 +13738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>914</v>
       </c>
@@ -13735,7 +13764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>917</v>
       </c>
@@ -13761,7 +13790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>920</v>
       </c>
@@ -13787,7 +13816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>923</v>
       </c>
@@ -13813,7 +13842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>926</v>
       </c>
@@ -13839,7 +13868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>928</v>
       </c>
@@ -13865,7 +13894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>931</v>
       </c>
@@ -13891,7 +13920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>934</v>
       </c>
@@ -13917,7 +13946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>937</v>
       </c>
@@ -13943,7 +13972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>940</v>
       </c>
@@ -13969,7 +13998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>943</v>
       </c>
@@ -13995,7 +14024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>946</v>
       </c>
@@ -14021,7 +14050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>949</v>
       </c>
@@ -14047,7 +14076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>951</v>
       </c>
@@ -14073,7 +14102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>953</v>
       </c>
@@ -14105,7 +14134,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>959</v>
       </c>
@@ -14137,7 +14166,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>962</v>
       </c>
@@ -14169,7 +14198,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>965</v>
       </c>
@@ -14201,7 +14230,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>968</v>
       </c>
@@ -14233,7 +14262,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>971</v>
       </c>
@@ -14265,7 +14294,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>974</v>
       </c>
@@ -14297,7 +14326,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>977</v>
       </c>
@@ -14329,7 +14358,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>980</v>
       </c>
@@ -14361,7 +14390,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>983</v>
       </c>
@@ -14393,7 +14422,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>986</v>
       </c>
@@ -14425,7 +14454,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>989</v>
       </c>
@@ -14457,7 +14486,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>991</v>
       </c>
@@ -14489,7 +14518,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>994</v>
       </c>
@@ -14521,7 +14550,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>997</v>
       </c>
@@ -14553,7 +14582,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>1000</v>
       </c>
@@ -14585,7 +14614,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>1003</v>
       </c>
@@ -14617,7 +14646,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>1006</v>
       </c>
@@ -14649,7 +14678,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>1009</v>
       </c>
@@ -14681,7 +14710,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>1011</v>
       </c>
@@ -14713,7 +14742,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>1014</v>
       </c>
@@ -14745,7 +14774,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>1017</v>
       </c>
@@ -14777,7 +14806,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>1019</v>
       </c>
@@ -14809,7 +14838,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>1022</v>
       </c>
@@ -14841,7 +14870,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>1025</v>
       </c>
@@ -14873,7 +14902,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>1028</v>
       </c>
@@ -14905,7 +14934,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>1030</v>
       </c>
@@ -14937,7 +14966,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>1033</v>
       </c>
@@ -14969,7 +14998,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>1035</v>
       </c>
@@ -15001,7 +15030,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>1038</v>
       </c>
@@ -15033,7 +15062,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>1041</v>
       </c>
@@ -15065,7 +15094,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
         <v>1044</v>
       </c>
@@ -15097,7 +15126,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>1047</v>
       </c>
@@ -15129,7 +15158,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
         <v>1050</v>
       </c>
@@ -15161,7 +15190,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>1053</v>
       </c>
@@ -15193,7 +15222,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>1055</v>
       </c>
@@ -15225,7 +15254,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
         <v>1057</v>
       </c>
@@ -15257,7 +15286,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>1059</v>
       </c>
@@ -15289,7 +15318,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>1062</v>
       </c>
@@ -15321,7 +15350,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
         <v>1064</v>
       </c>
@@ -15353,7 +15382,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
         <v>1066</v>
       </c>
@@ -15385,7 +15414,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>1068</v>
       </c>
@@ -15417,7 +15446,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
         <v>1071</v>
       </c>
@@ -15449,7 +15478,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>1073</v>
       </c>
@@ -15481,7 +15510,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
         <v>1076</v>
       </c>
@@ -15513,7 +15542,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>1079</v>
       </c>
@@ -15545,7 +15574,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>1082</v>
       </c>
@@ -15577,7 +15606,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
         <v>1085</v>
       </c>
@@ -15609,7 +15638,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
         <v>1088</v>
       </c>
@@ -15641,7 +15670,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
         <v>1090</v>
       </c>
@@ -15667,7 +15696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
         <v>1093</v>
       </c>
@@ -15693,7 +15722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
         <v>1096</v>
       </c>
@@ -15719,7 +15748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
         <v>1099</v>
       </c>
@@ -15745,7 +15774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
         <v>1101</v>
       </c>
@@ -15771,7 +15800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
         <v>1104</v>
       </c>
@@ -15797,7 +15826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
         <v>1107</v>
       </c>
@@ -15823,7 +15852,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
         <v>1109</v>
       </c>
@@ -15849,7 +15878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
         <v>1111</v>
       </c>
@@ -15875,7 +15904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
         <v>1113</v>
       </c>
@@ -15901,7 +15930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
         <v>1116</v>
       </c>
@@ -15927,7 +15956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>1119</v>
       </c>
@@ -15953,7 +15982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
         <v>1121</v>
       </c>
@@ -15979,7 +16008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
         <v>1123</v>
       </c>
@@ -16005,7 +16034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>1125</v>
       </c>
@@ -16031,7 +16060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>1127</v>
       </c>
@@ -16057,7 +16086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>1130</v>
       </c>
@@ -16083,7 +16112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>1133</v>
       </c>
@@ -16109,7 +16138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>1136</v>
       </c>
@@ -16135,7 +16164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
         <v>1138</v>
       </c>
@@ -16161,7 +16190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>1140</v>
       </c>
@@ -16187,7 +16216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>1142</v>
       </c>
@@ -16213,7 +16242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
         <v>1144</v>
       </c>
@@ -16239,7 +16268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
         <v>1146</v>
       </c>
@@ -16265,7 +16294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>1148</v>
       </c>
@@ -16291,7 +16320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
         <v>1151</v>
       </c>
@@ -16317,7 +16346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>1153</v>
       </c>
@@ -16343,7 +16372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
         <v>1155</v>
       </c>
@@ -16369,7 +16398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>1157</v>
       </c>
@@ -16395,7 +16424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>1159</v>
       </c>
@@ -16421,7 +16450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>1162</v>
       </c>
@@ -16447,7 +16476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
         <v>1164</v>
       </c>
@@ -16473,7 +16502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>1167</v>
       </c>
@@ -16499,7 +16528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
         <v>1170</v>
       </c>
@@ -16525,7 +16554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>1172</v>
       </c>
@@ -16551,7 +16580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>1175</v>
       </c>
@@ -16577,7 +16606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>1178</v>
       </c>
@@ -16603,7 +16632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>1180</v>
       </c>
@@ -16629,7 +16658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>1183</v>
       </c>
@@ -16655,7 +16684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>1185</v>
       </c>
@@ -16681,7 +16710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>1187</v>
       </c>
@@ -16707,7 +16736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>1189</v>
       </c>
@@ -16733,7 +16762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>1191</v>
       </c>
@@ -16759,7 +16788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>1194</v>
       </c>
@@ -16785,7 +16814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>1197</v>
       </c>
@@ -16811,7 +16840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>1199</v>
       </c>
@@ -16837,7 +16866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>1202</v>
       </c>
@@ -16863,7 +16892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
         <v>1205</v>
       </c>
@@ -16889,7 +16918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>1207</v>
       </c>
@@ -16915,7 +16944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
         <v>1209</v>
       </c>
@@ -16941,7 +16970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
         <v>1211</v>
       </c>
@@ -16967,7 +16996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>1213</v>
       </c>
@@ -16993,7 +17022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>1215</v>
       </c>
@@ -17019,7 +17048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
         <v>1217</v>
       </c>
@@ -17045,7 +17074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>1220</v>
       </c>
@@ -17071,7 +17100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>1223</v>
       </c>
@@ -17097,7 +17126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>1226</v>
       </c>
@@ -17123,7 +17152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
         <v>1229</v>
       </c>
@@ -17149,7 +17178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>1231</v>
       </c>
@@ -17175,7 +17204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>1233</v>
       </c>
@@ -17201,7 +17230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
         <v>1236</v>
       </c>
@@ -17227,7 +17256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>1239</v>
       </c>
@@ -17253,7 +17282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
         <v>1242</v>
       </c>
@@ -17279,7 +17308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
         <v>1244</v>
       </c>
@@ -17305,7 +17334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>1246</v>
       </c>
@@ -17331,7 +17360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>1248</v>
       </c>
@@ -17357,7 +17386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>1251</v>
       </c>
@@ -17383,7 +17412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
         <v>1254</v>
       </c>
@@ -17409,7 +17438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
         <v>1256</v>
       </c>
@@ -17435,7 +17464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>1259</v>
       </c>
@@ -17461,7 +17490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
         <v>1262</v>
       </c>
@@ -17487,7 +17516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>1265</v>
       </c>
@@ -17513,7 +17542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>1267</v>
       </c>
@@ -17539,7 +17568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
         <v>1269</v>
       </c>
@@ -17565,7 +17594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>1272</v>
       </c>
@@ -17591,7 +17620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>1274</v>
       </c>
@@ -17617,7 +17646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
         <v>1276</v>
       </c>
@@ -17643,7 +17672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>1279</v>
       </c>
@@ -17669,7 +17698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>1282</v>
       </c>
@@ -17695,7 +17724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
         <v>1285</v>
       </c>
@@ -17721,7 +17750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>1287</v>
       </c>
@@ -17747,7 +17776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>1289</v>
       </c>
@@ -17773,7 +17802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
         <v>1292</v>
       </c>
@@ -17799,7 +17828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>1294</v>
       </c>
@@ -17825,7 +17854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>1296</v>
       </c>
@@ -17851,7 +17880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>1299</v>
       </c>
@@ -17877,7 +17906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
         <v>1301</v>
       </c>
@@ -17903,7 +17932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
         <v>1303</v>
       </c>
@@ -17929,7 +17958,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
         <v>1306</v>
       </c>
@@ -17955,7 +17984,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
         <v>1309</v>
       </c>
@@ -17981,7 +18010,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
         <v>1312</v>
       </c>
@@ -18007,7 +18036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
         <v>1315</v>
       </c>
@@ -18033,7 +18062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
         <v>1318</v>
       </c>
@@ -18059,7 +18088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
         <v>1320</v>
       </c>
@@ -18085,7 +18114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
         <v>1322</v>
       </c>
@@ -18111,7 +18140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
         <v>1324</v>
       </c>
@@ -18137,7 +18166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
         <v>1326</v>
       </c>
@@ -18163,7 +18192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
         <v>1328</v>
       </c>
@@ -18204,21 +18233,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -18241,7 +18270,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -18264,7 +18293,7 @@
         <v>133365526216905</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -18287,7 +18316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
@@ -18310,7 +18339,7 @@
         <v>4.6341463414634099</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
@@ -18333,7 +18362,7 @@
         <v>6.1351351351351298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -18356,7 +18385,7 @@
         <v>0.14806213966964399</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
@@ -18379,7 +18408,7 @@
         <v>1.1818502448589701</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
@@ -18402,7 +18431,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
@@ -18425,7 +18454,7 @@
         <v>1.9283718475499999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -18448,7 +18477,7 @@
         <v>0.39814163441817602</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
@@ -18471,7 +18500,7 @@
         <v>2.8365804444687E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>59</v>
       </c>
@@ -18494,7 +18523,7 @@
         <v>-1.0065865965105301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
@@ -18517,7 +18546,7 @@
         <v>-1.0065865965105301</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>73</v>
       </c>

--- a/ModelList.xlsx
+++ b/ModelList.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
     <sheet name="BBC_CoordianteSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="SELECTED" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4812" uniqueCount="1337">
   <si>
     <t>index</t>
   </si>
@@ -4433,12 +4434,14 @@
   </sheetPr>
   <dimension ref="A1:J503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="J242" sqref="J242"/>
+    <sheetView topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414:F423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="22.21875" customWidth="1"/>
     <col min="10" max="10" width="27.109375" customWidth="1"/>
@@ -18573,4 +18576,1758 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ModelList.xlsx
+++ b/ModelList.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjuso\Documents\Graduate\MS_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyisong/Documents/CMU/MS_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE06D0-A6F1-644F-8A97-E679C5A20FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="2"/>
+    <workbookView xWindow="2520" yWindow="1440" windowWidth="25720" windowHeight="15520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
     <sheet name="BBC_CoordianteSearch" sheetId="2" r:id="rId2"/>
     <sheet name="SELECTED" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">SELECTED!$G$2:$H$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SELECTED!$I$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SELECTED!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SELECTED!$G$2:$H$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SELECTED!$I$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">SELECTED!$I$2:$I$8</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4812" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="1345">
   <si>
     <t>index</t>
   </si>
@@ -4032,13 +4049,37 @@
   </si>
   <si>
     <t>完全崩盘</t>
+  </si>
+  <si>
+    <t>variables(1-10)</t>
+  </si>
+  <si>
+    <t>variables(10-50)</t>
+  </si>
+  <si>
+    <t>variables(50-300)</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Number of Dimensions</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>libraries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4108,6 +4149,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4129,7 +4181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -4149,6 +4201,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4164,6 +4238,1409 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>smooth</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AF46-444D-9031-E48A2FBA9EF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>convex</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AF46-444D-9031-E48A2FBA9EF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>1-10</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AF46-444D-9031-E48A2FBA9EF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SELECTED!$F$11:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>smoothness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>convexity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of Dimensions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SELECTED!$G$11:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF46-444D-9031-E48A2FBA9EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Series2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>nonsmooth</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-AF46-444D-9031-E48A2FBA9EF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>nonconvex</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AF46-444D-9031-E48A2FBA9EF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>11-50</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-AF46-444D-9031-E48A2FBA9EF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SELECTED!$F$11:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>smoothness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>convexity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of Dimensions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SELECTED!$H$11:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF46-444D-9031-E48A2FBA9EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Series3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.8333333333333334E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>51-300</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AF46-444D-9031-E48A2FBA9EF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SELECTED!$F$11:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>smoothness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>convexity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of Dimensions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SELECTED!$I$11:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF46-444D-9031-E48A2FBA9EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1821287072"/>
+        <c:axId val="1821129040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1821287072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1821129040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1821129040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1821287072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34324</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>155834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289468</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15791</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEC9FBD-EC5B-9C4B-BCA7-1912095DAC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4428,26 +5905,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J503"/>
   <sheetViews>
-    <sheetView topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414:F423"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169:H178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4479,7 +5956,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -4505,7 +5982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4531,7 +6008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -4557,7 +6034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -4583,7 +6060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -4609,7 +6086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -4635,7 +6112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -4661,7 +6138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
@@ -4687,7 +6164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -4713,7 +6190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -4739,7 +6216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -4765,7 +6242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -4791,7 +6268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
@@ -4817,7 +6294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -4843,7 +6320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -4869,7 +6346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -4895,7 +6372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -4921,7 +6398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
@@ -4947,7 +6424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
@@ -4973,7 +6450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>61</v>
       </c>
@@ -4999,7 +6476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -5025,7 +6502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
@@ -5051,7 +6528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>70</v>
       </c>
@@ -5077,7 +6554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>72</v>
       </c>
@@ -5103,7 +6580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
@@ -5129,7 +6606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -5155,7 +6632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>82</v>
       </c>
@@ -5181,7 +6658,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>84</v>
       </c>
@@ -5207,7 +6684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
@@ -5233,7 +6710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>12</v>
       </c>
@@ -5259,7 +6736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>89</v>
       </c>
@@ -5285,7 +6762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>91</v>
       </c>
@@ -5311,7 +6788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>93</v>
       </c>
@@ -5337,7 +6814,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>95</v>
       </c>
@@ -5363,7 +6840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>97</v>
       </c>
@@ -5389,7 +6866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>99</v>
       </c>
@@ -5415,7 +6892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>101</v>
       </c>
@@ -5441,7 +6918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>103</v>
       </c>
@@ -5467,7 +6944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>105</v>
       </c>
@@ -5493,7 +6970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>107</v>
       </c>
@@ -5519,7 +6996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>109</v>
       </c>
@@ -5545,7 +7022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>111</v>
       </c>
@@ -5571,7 +7048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>113</v>
       </c>
@@ -5597,7 +7074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>115</v>
       </c>
@@ -5623,7 +7100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>117</v>
       </c>
@@ -5649,7 +7126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>120</v>
       </c>
@@ -5675,7 +7152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>122</v>
       </c>
@@ -5701,7 +7178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>124</v>
       </c>
@@ -5727,7 +7204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>126</v>
       </c>
@@ -5753,7 +7230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>65</v>
       </c>
@@ -5779,7 +7256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>129</v>
       </c>
@@ -5805,7 +7282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>131</v>
       </c>
@@ -5831,7 +7308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>133</v>
       </c>
@@ -5857,7 +7334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>135</v>
       </c>
@@ -5883,7 +7360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>137</v>
       </c>
@@ -5909,7 +7386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>139</v>
       </c>
@@ -5935,7 +7412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>141</v>
       </c>
@@ -5961,7 +7438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>143</v>
       </c>
@@ -5987,7 +7464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>145</v>
       </c>
@@ -6013,7 +7490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>147</v>
       </c>
@@ -6039,7 +7516,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>150</v>
       </c>
@@ -6065,7 +7542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>152</v>
       </c>
@@ -6091,7 +7568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>154</v>
       </c>
@@ -6117,7 +7594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>156</v>
       </c>
@@ -6143,7 +7620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>158</v>
       </c>
@@ -6169,7 +7646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>160</v>
       </c>
@@ -6195,7 +7672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>162</v>
       </c>
@@ -6221,7 +7698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>164</v>
       </c>
@@ -6247,7 +7724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>166</v>
       </c>
@@ -6273,7 +7750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>168</v>
       </c>
@@ -6299,7 +7776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
@@ -6325,7 +7802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>172</v>
       </c>
@@ -6351,7 +7828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>174</v>
       </c>
@@ -6377,7 +7854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>176</v>
       </c>
@@ -6403,7 +7880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>178</v>
       </c>
@@ -6429,7 +7906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>180</v>
       </c>
@@ -6455,7 +7932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>182</v>
       </c>
@@ -6481,7 +7958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>184</v>
       </c>
@@ -6507,7 +7984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>186</v>
       </c>
@@ -6533,7 +8010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>188</v>
       </c>
@@ -6559,7 +8036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>190</v>
       </c>
@@ -6585,7 +8062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>192</v>
       </c>
@@ -6611,7 +8088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>194</v>
       </c>
@@ -6637,7 +8114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>196</v>
       </c>
@@ -6663,7 +8140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
@@ -6689,7 +8166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>200</v>
       </c>
@@ -6715,7 +8192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>202</v>
       </c>
@@ -6741,7 +8218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>204</v>
       </c>
@@ -6767,7 +8244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>206</v>
       </c>
@@ -6793,7 +8270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>208</v>
       </c>
@@ -6819,7 +8296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>212</v>
       </c>
@@ -6845,7 +8322,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>215</v>
       </c>
@@ -6871,7 +8348,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>218</v>
       </c>
@@ -6897,7 +8374,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>221</v>
       </c>
@@ -6923,7 +8400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>224</v>
       </c>
@@ -6949,7 +8426,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>227</v>
       </c>
@@ -6975,7 +8452,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>230</v>
       </c>
@@ -7001,7 +8478,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>233</v>
       </c>
@@ -7027,7 +8504,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>236</v>
       </c>
@@ -7053,7 +8530,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>26</v>
       </c>
@@ -7079,7 +8556,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
         <v>241</v>
       </c>
@@ -7105,7 +8582,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
         <v>244</v>
       </c>
@@ -7131,7 +8608,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
         <v>247</v>
       </c>
@@ -7157,7 +8634,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
         <v>250</v>
       </c>
@@ -7183,7 +8660,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
         <v>253</v>
       </c>
@@ -7209,7 +8686,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="9" t="s">
         <v>256</v>
       </c>
@@ -7235,7 +8712,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="9" t="s">
         <v>259</v>
       </c>
@@ -7261,7 +8738,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
         <v>262</v>
       </c>
@@ -7287,7 +8764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
         <v>265</v>
       </c>
@@ -7313,7 +8790,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="9" t="s">
         <v>268</v>
       </c>
@@ -7339,7 +8816,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
         <v>271</v>
       </c>
@@ -7365,7 +8842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
         <v>274</v>
       </c>
@@ -7391,7 +8868,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
         <v>277</v>
       </c>
@@ -7417,7 +8894,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="9" t="s">
         <v>280</v>
       </c>
@@ -7443,7 +8920,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="9" t="s">
         <v>283</v>
       </c>
@@ -7469,7 +8946,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="9" t="s">
         <v>286</v>
       </c>
@@ -7495,7 +8972,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="9" t="s">
         <v>289</v>
       </c>
@@ -7521,7 +8998,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
         <v>292</v>
       </c>
@@ -7547,7 +9024,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
         <v>295</v>
       </c>
@@ -7573,7 +9050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
         <v>298</v>
       </c>
@@ -7599,7 +9076,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
         <v>301</v>
       </c>
@@ -7625,7 +9102,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>304</v>
       </c>
@@ -7651,7 +9128,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
         <v>307</v>
       </c>
@@ -7677,7 +9154,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
         <v>310</v>
       </c>
@@ -7703,7 +9180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
         <v>313</v>
       </c>
@@ -7729,7 +9206,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
         <v>316</v>
       </c>
@@ -7755,7 +9232,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
         <v>319</v>
       </c>
@@ -7781,7 +9258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="9" t="s">
         <v>322</v>
       </c>
@@ -7807,7 +9284,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="9" t="s">
         <v>325</v>
       </c>
@@ -7833,7 +9310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="9" t="s">
         <v>328</v>
       </c>
@@ -7859,7 +9336,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
         <v>331</v>
       </c>
@@ -7885,7 +9362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="9" t="s">
         <v>334</v>
       </c>
@@ -7911,7 +9388,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="9" t="s">
         <v>337</v>
       </c>
@@ -7937,7 +9414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="9" t="s">
         <v>340</v>
       </c>
@@ -7963,7 +9440,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="9" t="s">
         <v>343</v>
       </c>
@@ -7989,7 +9466,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="9" t="s">
         <v>346</v>
       </c>
@@ -8015,7 +9492,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="9" t="s">
         <v>349</v>
       </c>
@@ -8041,7 +9518,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="9" t="s">
         <v>352</v>
       </c>
@@ -8067,7 +9544,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="9" t="s">
         <v>355</v>
       </c>
@@ -8093,7 +9570,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="9" t="s">
         <v>358</v>
       </c>
@@ -8119,7 +9596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
         <v>361</v>
       </c>
@@ -8145,7 +9622,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="9" t="s">
         <v>364</v>
       </c>
@@ -8171,7 +9648,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="9" t="s">
         <v>367</v>
       </c>
@@ -8197,7 +9674,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="9" t="s">
         <v>370</v>
       </c>
@@ -8223,7 +9700,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="9" t="s">
         <v>373</v>
       </c>
@@ -8249,7 +9726,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="9" t="s">
         <v>376</v>
       </c>
@@ -8275,7 +9752,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="9" t="s">
         <v>379</v>
       </c>
@@ -8301,7 +9778,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="9" t="s">
         <v>382</v>
       </c>
@@ -8327,7 +9804,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="9" t="s">
         <v>385</v>
       </c>
@@ -8353,7 +9830,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
         <v>388</v>
       </c>
@@ -8379,7 +9856,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="9" t="s">
         <v>391</v>
       </c>
@@ -8405,7 +9882,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="9" t="s">
         <v>394</v>
       </c>
@@ -8431,7 +9908,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="9" t="s">
         <v>397</v>
       </c>
@@ -8457,7 +9934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="9" t="s">
         <v>400</v>
       </c>
@@ -8483,7 +9960,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="9" t="s">
         <v>403</v>
       </c>
@@ -8509,7 +9986,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="9" t="s">
         <v>405</v>
       </c>
@@ -8535,7 +10012,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="9" t="s">
         <v>407</v>
       </c>
@@ -8561,7 +10038,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
         <v>409</v>
       </c>
@@ -8587,7 +10064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="9" t="s">
         <v>411</v>
       </c>
@@ -8613,7 +10090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="9" t="s">
         <v>413</v>
       </c>
@@ -8639,7 +10116,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="9" t="s">
         <v>415</v>
       </c>
@@ -8665,7 +10142,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="9" t="s">
         <v>417</v>
       </c>
@@ -8691,7 +10168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="9" t="s">
         <v>419</v>
       </c>
@@ -8717,7 +10194,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="9" t="s">
         <v>421</v>
       </c>
@@ -8743,7 +10220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="9" t="s">
         <v>423</v>
       </c>
@@ -8769,7 +10246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="9" t="s">
         <v>425</v>
       </c>
@@ -8795,7 +10272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="9" t="s">
         <v>427</v>
       </c>
@@ -8821,7 +10298,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="9" t="s">
         <v>429</v>
       </c>
@@ -8853,7 +10330,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="9" t="s">
         <v>435</v>
       </c>
@@ -8885,7 +10362,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="9" t="s">
         <v>438</v>
       </c>
@@ -8917,7 +10394,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="9" t="s">
         <v>441</v>
       </c>
@@ -8949,7 +10426,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="9" t="s">
         <v>444</v>
       </c>
@@ -8981,7 +10458,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="9" t="s">
         <v>447</v>
       </c>
@@ -9013,7 +10490,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="9" t="s">
         <v>450</v>
       </c>
@@ -9045,7 +10522,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="9" t="s">
         <v>453</v>
       </c>
@@ -9077,7 +10554,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="9" t="s">
         <v>456</v>
       </c>
@@ -9109,7 +10586,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="9" t="s">
         <v>459</v>
       </c>
@@ -9141,7 +10618,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="9" t="s">
         <v>462</v>
       </c>
@@ -9173,7 +10650,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="9" t="s">
         <v>465</v>
       </c>
@@ -9205,7 +10682,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="9" t="s">
         <v>468</v>
       </c>
@@ -9237,7 +10714,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="9" t="s">
         <v>471</v>
       </c>
@@ -9269,7 +10746,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="9" t="s">
         <v>474</v>
       </c>
@@ -9301,7 +10778,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="9" t="s">
         <v>477</v>
       </c>
@@ -9333,7 +10810,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="9" t="s">
         <v>480</v>
       </c>
@@ -9365,7 +10842,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="9" t="s">
         <v>483</v>
       </c>
@@ -9397,7 +10874,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="9" t="s">
         <v>486</v>
       </c>
@@ -9429,7 +10906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" s="9" t="s">
         <v>489</v>
       </c>
@@ -9461,7 +10938,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" s="9" t="s">
         <v>492</v>
       </c>
@@ -9493,7 +10970,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" s="9" t="s">
         <v>495</v>
       </c>
@@ -9525,7 +11002,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="9" t="s">
         <v>498</v>
       </c>
@@ -9557,7 +11034,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="9" t="s">
         <v>501</v>
       </c>
@@ -9589,7 +11066,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="9" t="s">
         <v>504</v>
       </c>
@@ -9621,7 +11098,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" s="9" t="s">
         <v>507</v>
       </c>
@@ -9653,7 +11130,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" s="9" t="s">
         <v>510</v>
       </c>
@@ -9685,7 +11162,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" s="9" t="s">
         <v>513</v>
       </c>
@@ -9717,7 +11194,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" s="9" t="s">
         <v>516</v>
       </c>
@@ -9749,7 +11226,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" s="9" t="s">
         <v>519</v>
       </c>
@@ -9781,7 +11258,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" s="9" t="s">
         <v>522</v>
       </c>
@@ -9813,7 +11290,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" s="9" t="s">
         <v>525</v>
       </c>
@@ -9845,7 +11322,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" s="9" t="s">
         <v>119</v>
       </c>
@@ -9877,7 +11354,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" s="9" t="s">
         <v>530</v>
       </c>
@@ -9909,7 +11386,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
         <v>533</v>
       </c>
@@ -9941,7 +11418,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" s="9" t="s">
         <v>536</v>
       </c>
@@ -9973,7 +11450,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" s="9" t="s">
         <v>539</v>
       </c>
@@ -10005,7 +11482,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="9" t="s">
         <v>542</v>
       </c>
@@ -10037,7 +11514,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="9" t="s">
         <v>545</v>
       </c>
@@ -10069,7 +11546,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="9" t="s">
         <v>548</v>
       </c>
@@ -10101,7 +11578,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" s="9" t="s">
         <v>551</v>
       </c>
@@ -10133,7 +11610,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" s="9" t="s">
         <v>554</v>
       </c>
@@ -10165,7 +11642,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" s="9" t="s">
         <v>557</v>
       </c>
@@ -10197,7 +11674,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" s="9" t="s">
         <v>560</v>
       </c>
@@ -10229,7 +11706,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" s="9" t="s">
         <v>563</v>
       </c>
@@ -10261,7 +11738,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" s="9" t="s">
         <v>566</v>
       </c>
@@ -10293,7 +11770,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" s="9" t="s">
         <v>569</v>
       </c>
@@ -10325,7 +11802,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" s="9" t="s">
         <v>572</v>
       </c>
@@ -10357,7 +11834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" s="9" t="s">
         <v>575</v>
       </c>
@@ -10389,7 +11866,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" s="9" t="s">
         <v>578</v>
       </c>
@@ -10421,7 +11898,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" s="9" t="s">
         <v>581</v>
       </c>
@@ -10453,7 +11930,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" s="9" t="s">
         <v>584</v>
       </c>
@@ -10485,7 +11962,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" s="9" t="s">
         <v>587</v>
       </c>
@@ -10517,7 +11994,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" s="9" t="s">
         <v>590</v>
       </c>
@@ -10549,7 +12026,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" s="9" t="s">
         <v>593</v>
       </c>
@@ -10581,7 +12058,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" s="9" t="s">
         <v>596</v>
       </c>
@@ -10613,7 +12090,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" s="9" t="s">
         <v>599</v>
       </c>
@@ -10645,7 +12122,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" s="9" t="s">
         <v>602</v>
       </c>
@@ -10677,7 +12154,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" s="9" t="s">
         <v>605</v>
       </c>
@@ -10709,7 +12186,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" s="9" t="s">
         <v>608</v>
       </c>
@@ -10741,7 +12218,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" s="9" t="s">
         <v>611</v>
       </c>
@@ -10773,7 +12250,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" s="9" t="s">
         <v>614</v>
       </c>
@@ -10805,7 +12282,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" s="9" t="s">
         <v>617</v>
       </c>
@@ -10837,7 +12314,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" s="9" t="s">
         <v>620</v>
       </c>
@@ -10869,7 +12346,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="9" t="s">
         <v>623</v>
       </c>
@@ -10901,7 +12378,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" s="9" t="s">
         <v>626</v>
       </c>
@@ -10927,7 +12404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" s="9" t="s">
         <v>628</v>
       </c>
@@ -10956,7 +12433,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" s="9" t="s">
         <v>630</v>
       </c>
@@ -10982,7 +12459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" s="9" t="s">
         <v>632</v>
       </c>
@@ -11008,7 +12485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" s="9" t="s">
         <v>634</v>
       </c>
@@ -11034,7 +12511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" s="9" t="s">
         <v>636</v>
       </c>
@@ -11060,7 +12537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" s="9" t="s">
         <v>638</v>
       </c>
@@ -11086,7 +12563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" s="9" t="s">
         <v>640</v>
       </c>
@@ -11112,7 +12589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" s="9" t="s">
         <v>642</v>
       </c>
@@ -11141,7 +12618,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" s="9" t="s">
         <v>645</v>
       </c>
@@ -11167,7 +12644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" s="9" t="s">
         <v>648</v>
       </c>
@@ -11193,7 +12670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" s="9" t="s">
         <v>651</v>
       </c>
@@ -11219,7 +12696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" s="9" t="s">
         <v>653</v>
       </c>
@@ -11245,7 +12722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" s="9" t="s">
         <v>655</v>
       </c>
@@ -11271,7 +12748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" s="9" t="s">
         <v>657</v>
       </c>
@@ -11297,7 +12774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" s="9" t="s">
         <v>660</v>
       </c>
@@ -11323,7 +12800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" s="9" t="s">
         <v>663</v>
       </c>
@@ -11349,7 +12826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" s="9" t="s">
         <v>666</v>
       </c>
@@ -11375,7 +12852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" s="9" t="s">
         <v>668</v>
       </c>
@@ -11401,7 +12878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" s="9" t="s">
         <v>671</v>
       </c>
@@ -11427,7 +12904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" s="9" t="s">
         <v>674</v>
       </c>
@@ -11453,7 +12930,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" s="9" t="s">
         <v>678</v>
       </c>
@@ -11479,7 +12956,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
         <v>681</v>
       </c>
@@ -11505,7 +12982,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" s="9" t="s">
         <v>684</v>
       </c>
@@ -11531,7 +13008,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" s="9" t="s">
         <v>686</v>
       </c>
@@ -11557,7 +13034,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" s="9" t="s">
         <v>688</v>
       </c>
@@ -11583,7 +13060,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
         <v>691</v>
       </c>
@@ -11609,7 +13086,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" s="9" t="s">
         <v>694</v>
       </c>
@@ -11635,7 +13112,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" s="9" t="s">
         <v>697</v>
       </c>
@@ -11661,7 +13138,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" s="9" t="s">
         <v>700</v>
       </c>
@@ -11687,7 +13164,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" s="9" t="s">
         <v>703</v>
       </c>
@@ -11713,7 +13190,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
         <v>705</v>
       </c>
@@ -11739,7 +13216,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" s="9" t="s">
         <v>707</v>
       </c>
@@ -11765,7 +13242,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" s="9" t="s">
         <v>710</v>
       </c>
@@ -11791,7 +13268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" s="9" t="s">
         <v>713</v>
       </c>
@@ -11817,7 +13294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" s="9" t="s">
         <v>716</v>
       </c>
@@ -11843,7 +13320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" s="9" t="s">
         <v>719</v>
       </c>
@@ -11869,7 +13346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" s="9" t="s">
         <v>722</v>
       </c>
@@ -11895,7 +13372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" s="9" t="s">
         <v>724</v>
       </c>
@@ -11921,7 +13398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" s="9" t="s">
         <v>727</v>
       </c>
@@ -11947,7 +13424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" s="9" t="s">
         <v>730</v>
       </c>
@@ -11973,7 +13450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" s="9" t="s">
         <v>733</v>
       </c>
@@ -11999,7 +13476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" s="9" t="s">
         <v>735</v>
       </c>
@@ -12025,7 +13502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="9" t="s">
         <v>737</v>
       </c>
@@ -12051,7 +13528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" s="9" t="s">
         <v>739</v>
       </c>
@@ -12077,7 +13554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" s="9" t="s">
         <v>741</v>
       </c>
@@ -12103,7 +13580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" s="9" t="s">
         <v>744</v>
       </c>
@@ -12129,7 +13606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" s="9" t="s">
         <v>746</v>
       </c>
@@ -12155,7 +13632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" s="9" t="s">
         <v>749</v>
       </c>
@@ -12181,7 +13658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" s="9" t="s">
         <v>752</v>
       </c>
@@ -12207,7 +13684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" s="9" t="s">
         <v>755</v>
       </c>
@@ -12233,7 +13710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" s="9" t="s">
         <v>758</v>
       </c>
@@ -12259,7 +13736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" s="9" t="s">
         <v>760</v>
       </c>
@@ -12285,7 +13762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" s="9" t="s">
         <v>763</v>
       </c>
@@ -12311,7 +13788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" s="9" t="s">
         <v>765</v>
       </c>
@@ -12337,7 +13814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" s="9" t="s">
         <v>767</v>
       </c>
@@ -12363,7 +13840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290" s="9" t="s">
         <v>769</v>
       </c>
@@ -12389,7 +13866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291" s="9" t="s">
         <v>771</v>
       </c>
@@ -12415,7 +13892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292" s="9" t="s">
         <v>773</v>
       </c>
@@ -12441,7 +13918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293" s="9" t="s">
         <v>775</v>
       </c>
@@ -12467,7 +13944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294" s="9" t="s">
         <v>777</v>
       </c>
@@ -12493,7 +13970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295" s="9" t="s">
         <v>780</v>
       </c>
@@ -12519,7 +13996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296" s="9" t="s">
         <v>782</v>
       </c>
@@ -12545,7 +14022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297" s="9" t="s">
         <v>785</v>
       </c>
@@ -12571,7 +14048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298" s="9" t="s">
         <v>787</v>
       </c>
@@ -12597,7 +14074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299" s="9" t="s">
         <v>790</v>
       </c>
@@ -12623,7 +14100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300" s="9" t="s">
         <v>792</v>
       </c>
@@ -12649,7 +14126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301" s="9" t="s">
         <v>149</v>
       </c>
@@ -12675,7 +14152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302" s="9" t="s">
         <v>797</v>
       </c>
@@ -12701,7 +14178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303" s="9" t="s">
         <v>799</v>
       </c>
@@ -12727,7 +14204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304" s="9" t="s">
         <v>802</v>
       </c>
@@ -12753,7 +14230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" s="9" t="s">
         <v>805</v>
       </c>
@@ -12779,7 +14256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" s="9" t="s">
         <v>807</v>
       </c>
@@ -12805,7 +14282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" s="9" t="s">
         <v>809</v>
       </c>
@@ -12831,7 +14308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" s="9" t="s">
         <v>811</v>
       </c>
@@ -12857,7 +14334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" s="9" t="s">
         <v>814</v>
       </c>
@@ -12883,7 +14360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" s="9" t="s">
         <v>817</v>
       </c>
@@ -12909,7 +14386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" s="9" t="s">
         <v>820</v>
       </c>
@@ -12935,7 +14412,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" s="9" t="s">
         <v>823</v>
       </c>
@@ -12961,7 +14438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" s="9" t="s">
         <v>826</v>
       </c>
@@ -12987,7 +14464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" s="9" t="s">
         <v>829</v>
       </c>
@@ -13013,7 +14490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" s="9" t="s">
         <v>831</v>
       </c>
@@ -13039,7 +14516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" s="9" t="s">
         <v>834</v>
       </c>
@@ -13065,7 +14542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" s="9" t="s">
         <v>836</v>
       </c>
@@ -13091,7 +14568,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" s="9" t="s">
         <v>840</v>
       </c>
@@ -13117,7 +14594,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" s="9" t="s">
         <v>843</v>
       </c>
@@ -13143,7 +14620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" s="9" t="s">
         <v>846</v>
       </c>
@@ -13169,7 +14646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" s="9" t="s">
         <v>848</v>
       </c>
@@ -13195,7 +14672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" s="9" t="s">
         <v>851</v>
       </c>
@@ -13221,7 +14698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" s="9" t="s">
         <v>854</v>
       </c>
@@ -13247,7 +14724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" s="9" t="s">
         <v>857</v>
       </c>
@@ -13273,7 +14750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" s="9" t="s">
         <v>860</v>
       </c>
@@ -13299,7 +14776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" s="9" t="s">
         <v>863</v>
       </c>
@@ -13325,7 +14802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" s="9" t="s">
         <v>866</v>
       </c>
@@ -13351,7 +14828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" s="9" t="s">
         <v>869</v>
       </c>
@@ -13377,7 +14854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" s="9" t="s">
         <v>872</v>
       </c>
@@ -13403,7 +14880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" s="9" t="s">
         <v>875</v>
       </c>
@@ -13429,7 +14906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" s="9" t="s">
         <v>878</v>
       </c>
@@ -13455,7 +14932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" s="9" t="s">
         <v>881</v>
       </c>
@@ -13481,7 +14958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" s="9" t="s">
         <v>884</v>
       </c>
@@ -13507,7 +14984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" s="9" t="s">
         <v>887</v>
       </c>
@@ -13533,7 +15010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" s="9" t="s">
         <v>890</v>
       </c>
@@ -13559,7 +15036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" s="9" t="s">
         <v>893</v>
       </c>
@@ -13585,7 +15062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" s="9" t="s">
         <v>896</v>
       </c>
@@ -13611,7 +15088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" s="9" t="s">
         <v>899</v>
       </c>
@@ -13637,7 +15114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" s="9" t="s">
         <v>902</v>
       </c>
@@ -13663,7 +15140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340" s="9" t="s">
         <v>905</v>
       </c>
@@ -13689,7 +15166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341" s="9" t="s">
         <v>908</v>
       </c>
@@ -13715,7 +15192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342" s="9" t="s">
         <v>911</v>
       </c>
@@ -13741,7 +15218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A343" s="9" t="s">
         <v>914</v>
       </c>
@@ -13767,7 +15244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A344" s="9" t="s">
         <v>917</v>
       </c>
@@ -13793,7 +15270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A345" s="9" t="s">
         <v>920</v>
       </c>
@@ -13819,7 +15296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A346" s="9" t="s">
         <v>923</v>
       </c>
@@ -13845,7 +15322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A347" s="9" t="s">
         <v>926</v>
       </c>
@@ -13871,7 +15348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A348" s="9" t="s">
         <v>928</v>
       </c>
@@ -13897,7 +15374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A349" s="9" t="s">
         <v>931</v>
       </c>
@@ -13923,7 +15400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350" s="9" t="s">
         <v>934</v>
       </c>
@@ -13949,7 +15426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351" s="9" t="s">
         <v>937</v>
       </c>
@@ -13975,7 +15452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352" s="9" t="s">
         <v>940</v>
       </c>
@@ -14001,7 +15478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A353" s="9" t="s">
         <v>943</v>
       </c>
@@ -14027,7 +15504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A354" s="9" t="s">
         <v>946</v>
       </c>
@@ -14053,7 +15530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A355" s="9" t="s">
         <v>949</v>
       </c>
@@ -14079,7 +15556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A356" s="9" t="s">
         <v>951</v>
       </c>
@@ -14105,7 +15582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A357" s="9" t="s">
         <v>953</v>
       </c>
@@ -14137,7 +15614,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A358" s="9" t="s">
         <v>959</v>
       </c>
@@ -14169,7 +15646,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A359" s="9" t="s">
         <v>962</v>
       </c>
@@ -14201,7 +15678,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A360" s="9" t="s">
         <v>965</v>
       </c>
@@ -14233,7 +15710,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A361" s="9" t="s">
         <v>968</v>
       </c>
@@ -14265,7 +15742,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A362" s="9" t="s">
         <v>971</v>
       </c>
@@ -14297,7 +15774,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A363" s="9" t="s">
         <v>974</v>
       </c>
@@ -14329,7 +15806,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364" s="9" t="s">
         <v>977</v>
       </c>
@@ -14361,7 +15838,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A365" s="9" t="s">
         <v>980</v>
       </c>
@@ -14393,7 +15870,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A366" s="9" t="s">
         <v>983</v>
       </c>
@@ -14425,7 +15902,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A367" s="9" t="s">
         <v>986</v>
       </c>
@@ -14457,7 +15934,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A368" s="9" t="s">
         <v>989</v>
       </c>
@@ -14489,7 +15966,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A369" s="9" t="s">
         <v>991</v>
       </c>
@@ -14521,7 +15998,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>994</v>
       </c>
@@ -14553,7 +16030,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A371" s="9" t="s">
         <v>997</v>
       </c>
@@ -14585,7 +16062,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A372" s="9" t="s">
         <v>1000</v>
       </c>
@@ -14617,7 +16094,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A373" s="9" t="s">
         <v>1003</v>
       </c>
@@ -14649,7 +16126,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A374" s="9" t="s">
         <v>1006</v>
       </c>
@@ -14681,7 +16158,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A375" s="9" t="s">
         <v>1009</v>
       </c>
@@ -14713,7 +16190,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A376" s="9" t="s">
         <v>1011</v>
       </c>
@@ -14745,7 +16222,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A377" s="9" t="s">
         <v>1014</v>
       </c>
@@ -14777,7 +16254,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A378" s="9" t="s">
         <v>1017</v>
       </c>
@@ -14809,7 +16286,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A379" s="9" t="s">
         <v>1019</v>
       </c>
@@ -14841,7 +16318,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A380" s="9" t="s">
         <v>1022</v>
       </c>
@@ -14873,7 +16350,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A381" s="9" t="s">
         <v>1025</v>
       </c>
@@ -14905,7 +16382,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A382" s="9" t="s">
         <v>1028</v>
       </c>
@@ -14937,7 +16414,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A383" s="9" t="s">
         <v>1030</v>
       </c>
@@ -14969,7 +16446,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A384" s="9" t="s">
         <v>1033</v>
       </c>
@@ -15001,7 +16478,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385" s="9" t="s">
         <v>1035</v>
       </c>
@@ -15033,7 +16510,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386" s="9" t="s">
         <v>1038</v>
       </c>
@@ -15065,7 +16542,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387" s="9" t="s">
         <v>1041</v>
       </c>
@@ -15097,7 +16574,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388" s="9" t="s">
         <v>1044</v>
       </c>
@@ -15129,7 +16606,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389" s="9" t="s">
         <v>1047</v>
       </c>
@@ -15161,7 +16638,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A390" s="9" t="s">
         <v>1050</v>
       </c>
@@ -15193,7 +16670,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A391" s="9" t="s">
         <v>1053</v>
       </c>
@@ -15225,7 +16702,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A392" s="9" t="s">
         <v>1055</v>
       </c>
@@ -15257,7 +16734,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A393" s="9" t="s">
         <v>1057</v>
       </c>
@@ -15289,7 +16766,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A394" s="9" t="s">
         <v>1059</v>
       </c>
@@ -15321,7 +16798,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A395" s="9" t="s">
         <v>1062</v>
       </c>
@@ -15353,7 +16830,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396" s="9" t="s">
         <v>1064</v>
       </c>
@@ -15385,7 +16862,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397" s="9" t="s">
         <v>1066</v>
       </c>
@@ -15417,7 +16894,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A398" s="9" t="s">
         <v>1068</v>
       </c>
@@ -15449,7 +16926,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399" s="9" t="s">
         <v>1071</v>
       </c>
@@ -15481,7 +16958,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A400" s="9" t="s">
         <v>1073</v>
       </c>
@@ -15513,7 +16990,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A401" s="9" t="s">
         <v>1076</v>
       </c>
@@ -15545,7 +17022,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A402" s="9" t="s">
         <v>1079</v>
       </c>
@@ -15577,7 +17054,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A403" s="9" t="s">
         <v>1082</v>
       </c>
@@ -15609,7 +17086,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A404" s="9" t="s">
         <v>1085</v>
       </c>
@@ -15641,7 +17118,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A405" s="9" t="s">
         <v>1088</v>
       </c>
@@ -15673,7 +17150,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A406" s="9" t="s">
         <v>1090</v>
       </c>
@@ -15699,7 +17176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A407" s="9" t="s">
         <v>1093</v>
       </c>
@@ -15725,7 +17202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A408" s="9" t="s">
         <v>1096</v>
       </c>
@@ -15751,7 +17228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A409" s="9" t="s">
         <v>1099</v>
       </c>
@@ -15777,7 +17254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A410" s="9" t="s">
         <v>1101</v>
       </c>
@@ -15803,7 +17280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A411" s="9" t="s">
         <v>1104</v>
       </c>
@@ -15829,7 +17306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A412" s="9" t="s">
         <v>1107</v>
       </c>
@@ -15855,7 +17332,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A413" s="9" t="s">
         <v>1109</v>
       </c>
@@ -15881,7 +17358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A414" s="9" t="s">
         <v>1111</v>
       </c>
@@ -15907,7 +17384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A415" s="9" t="s">
         <v>1113</v>
       </c>
@@ -15933,7 +17410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A416" s="9" t="s">
         <v>1116</v>
       </c>
@@ -15959,7 +17436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A417" s="9" t="s">
         <v>1119</v>
       </c>
@@ -15985,7 +17462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A418" s="9" t="s">
         <v>1121</v>
       </c>
@@ -16011,7 +17488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A419" s="9" t="s">
         <v>1123</v>
       </c>
@@ -16037,7 +17514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A420" s="9" t="s">
         <v>1125</v>
       </c>
@@ -16063,7 +17540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A421" s="9" t="s">
         <v>1127</v>
       </c>
@@ -16089,7 +17566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A422" s="9" t="s">
         <v>1130</v>
       </c>
@@ -16115,7 +17592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A423" s="9" t="s">
         <v>1133</v>
       </c>
@@ -16141,7 +17618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A424" s="9" t="s">
         <v>1136</v>
       </c>
@@ -16167,7 +17644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A425" s="9" t="s">
         <v>1138</v>
       </c>
@@ -16193,7 +17670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A426" s="9" t="s">
         <v>1140</v>
       </c>
@@ -16219,7 +17696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A427" s="9" t="s">
         <v>1142</v>
       </c>
@@ -16245,7 +17722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A428" s="9" t="s">
         <v>1144</v>
       </c>
@@ -16271,7 +17748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A429" s="9" t="s">
         <v>1146</v>
       </c>
@@ -16297,7 +17774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A430" s="9" t="s">
         <v>1148</v>
       </c>
@@ -16323,7 +17800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A431" s="9" t="s">
         <v>1151</v>
       </c>
@@ -16349,7 +17826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A432" s="9" t="s">
         <v>1153</v>
       </c>
@@ -16375,7 +17852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A433" s="9" t="s">
         <v>1155</v>
       </c>
@@ -16401,7 +17878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A434" s="9" t="s">
         <v>1157</v>
       </c>
@@ -16427,7 +17904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A435" s="9" t="s">
         <v>1159</v>
       </c>
@@ -16453,7 +17930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A436" s="9" t="s">
         <v>1162</v>
       </c>
@@ -16479,7 +17956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A437" s="9" t="s">
         <v>1164</v>
       </c>
@@ -16505,7 +17982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A438" s="9" t="s">
         <v>1167</v>
       </c>
@@ -16531,7 +18008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A439" s="9" t="s">
         <v>1170</v>
       </c>
@@ -16557,7 +18034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A440" s="9" t="s">
         <v>1172</v>
       </c>
@@ -16583,7 +18060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A441" s="9" t="s">
         <v>1175</v>
       </c>
@@ -16609,7 +18086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A442" s="9" t="s">
         <v>1178</v>
       </c>
@@ -16635,7 +18112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A443" s="9" t="s">
         <v>1180</v>
       </c>
@@ -16661,7 +18138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A444" s="9" t="s">
         <v>1183</v>
       </c>
@@ -16687,7 +18164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A445" s="9" t="s">
         <v>1185</v>
       </c>
@@ -16713,7 +18190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A446" s="9" t="s">
         <v>1187</v>
       </c>
@@ -16739,7 +18216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A447" s="9" t="s">
         <v>1189</v>
       </c>
@@ -16765,7 +18242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A448" s="9" t="s">
         <v>1191</v>
       </c>
@@ -16791,7 +18268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A449" s="9" t="s">
         <v>1194</v>
       </c>
@@ -16817,7 +18294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A450" s="9" t="s">
         <v>1197</v>
       </c>
@@ -16843,7 +18320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A451" s="9" t="s">
         <v>1199</v>
       </c>
@@ -16869,7 +18346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A452" s="9" t="s">
         <v>1202</v>
       </c>
@@ -16895,7 +18372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A453" s="9" t="s">
         <v>1205</v>
       </c>
@@ -16921,7 +18398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A454" s="9" t="s">
         <v>1207</v>
       </c>
@@ -16947,7 +18424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A455" s="9" t="s">
         <v>1209</v>
       </c>
@@ -16973,7 +18450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A456" s="9" t="s">
         <v>1211</v>
       </c>
@@ -16999,7 +18476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A457" s="9" t="s">
         <v>1213</v>
       </c>
@@ -17025,7 +18502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A458" s="9" t="s">
         <v>1215</v>
       </c>
@@ -17051,7 +18528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A459" s="9" t="s">
         <v>1217</v>
       </c>
@@ -17077,7 +18554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A460" s="9" t="s">
         <v>1220</v>
       </c>
@@ -17103,7 +18580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A461" s="9" t="s">
         <v>1223</v>
       </c>
@@ -17129,7 +18606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A462" s="9" t="s">
         <v>1226</v>
       </c>
@@ -17155,7 +18632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A463" s="9" t="s">
         <v>1229</v>
       </c>
@@ -17181,7 +18658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A464" s="9" t="s">
         <v>1231</v>
       </c>
@@ -17207,7 +18684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A465" s="9" t="s">
         <v>1233</v>
       </c>
@@ -17233,7 +18710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A466" s="9" t="s">
         <v>1236</v>
       </c>
@@ -17259,7 +18736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A467" s="9" t="s">
         <v>1239</v>
       </c>
@@ -17285,7 +18762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
         <v>1242</v>
       </c>
@@ -17311,7 +18788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A469" s="9" t="s">
         <v>1244</v>
       </c>
@@ -17337,7 +18814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A470" s="9" t="s">
         <v>1246</v>
       </c>
@@ -17363,7 +18840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A471" s="9" t="s">
         <v>1248</v>
       </c>
@@ -17389,7 +18866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A472" s="9" t="s">
         <v>1251</v>
       </c>
@@ -17415,7 +18892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A473" s="9" t="s">
         <v>1254</v>
       </c>
@@ -17441,7 +18918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A474" s="9" t="s">
         <v>1256</v>
       </c>
@@ -17467,7 +18944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A475" s="9" t="s">
         <v>1259</v>
       </c>
@@ -17493,7 +18970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A476" s="9" t="s">
         <v>1262</v>
       </c>
@@ -17519,7 +18996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A477" s="9" t="s">
         <v>1265</v>
       </c>
@@ -17545,7 +19022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A478" s="9" t="s">
         <v>1267</v>
       </c>
@@ -17571,7 +19048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A479" s="9" t="s">
         <v>1269</v>
       </c>
@@ -17597,7 +19074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A480" s="9" t="s">
         <v>1272</v>
       </c>
@@ -17623,7 +19100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A481" s="9" t="s">
         <v>1274</v>
       </c>
@@ -17649,7 +19126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A482" s="9" t="s">
         <v>1276</v>
       </c>
@@ -17675,7 +19152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A483" s="9" t="s">
         <v>1279</v>
       </c>
@@ -17701,7 +19178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A484" s="9" t="s">
         <v>1282</v>
       </c>
@@ -17727,7 +19204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A485" s="9" t="s">
         <v>1285</v>
       </c>
@@ -17753,7 +19230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A486" s="9" t="s">
         <v>1287</v>
       </c>
@@ -17779,7 +19256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A487" s="9" t="s">
         <v>1289</v>
       </c>
@@ -17805,7 +19282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A488" s="9" t="s">
         <v>1292</v>
       </c>
@@ -17831,7 +19308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A489" s="9" t="s">
         <v>1294</v>
       </c>
@@ -17857,7 +19334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A490" s="9" t="s">
         <v>1296</v>
       </c>
@@ -17883,7 +19360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A491" s="9" t="s">
         <v>1299</v>
       </c>
@@ -17909,7 +19386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A492" s="9" t="s">
         <v>1301</v>
       </c>
@@ -17935,7 +19412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A493" s="9" t="s">
         <v>1303</v>
       </c>
@@ -17961,7 +19438,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A494" s="9" t="s">
         <v>1306</v>
       </c>
@@ -17987,7 +19464,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A495" s="9" t="s">
         <v>1309</v>
       </c>
@@ -18013,7 +19490,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A496" s="9" t="s">
         <v>1312</v>
       </c>
@@ -18039,7 +19516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A497" s="9" t="s">
         <v>1315</v>
       </c>
@@ -18065,7 +19542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A498" s="9" t="s">
         <v>1318</v>
       </c>
@@ -18091,7 +19568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A499" s="9" t="s">
         <v>1320</v>
       </c>
@@ -18117,7 +19594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A500" s="9" t="s">
         <v>1322</v>
       </c>
@@ -18143,7 +19620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A501" s="9" t="s">
         <v>1324</v>
       </c>
@@ -18169,7 +19646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A502" s="9" t="s">
         <v>1326</v>
       </c>
@@ -18195,7 +19672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A503" s="9" t="s">
         <v>1328</v>
       </c>
@@ -18233,24 +19710,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -18273,7 +19750,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -18296,7 +19773,7 @@
         <v>133365526216905</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -18319,7 +19796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
@@ -18342,7 +19819,7 @@
         <v>4.6341463414634099</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
@@ -18365,7 +19842,7 @@
         <v>6.1351351351351298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -18388,7 +19865,7 @@
         <v>0.14806213966964399</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
@@ -18411,7 +19888,7 @@
         <v>1.1818502448589701</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
@@ -18434,7 +19911,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
@@ -18457,7 +19934,7 @@
         <v>1.9283718475499999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -18480,7 +19957,7 @@
         <v>0.39814163441817602</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
@@ -18503,7 +19980,7 @@
         <v>2.8365804444687E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>59</v>
       </c>
@@ -18526,7 +20003,7 @@
         <v>-1.0065865965105301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
@@ -18549,7 +20026,7 @@
         <v>-1.0065865965105301</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>73</v>
       </c>
@@ -18579,21 +20056,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -18606,11 +20086,23 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -18620,14 +20112,31 @@
       <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
+      <c r="D2" s="15">
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(B2:B101,"smooth")</f>
+        <v>51</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(E2:E101,"princetonlib")</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -18637,14 +20146,29 @@
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
+      <c r="D3" s="15">
+        <v>5</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(B2:B101,"nonsmooth")</f>
+        <v>49</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="O3">
+        <f>COUNTIF(E2:E101,"Luksan")</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -18654,14 +20178,31 @@
       <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(C2:C101,"convex")</f>
+        <v>49</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIF(E2:E101,"Nesterov")</f>
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -18671,14 +20212,41 @@
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
+      <c r="D5" s="15">
+        <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(C2:C101,"nonconvex")</f>
+        <v>51</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(E2:E101,"Conn")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -18688,14 +20256,40 @@
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
+      <c r="D6" s="15">
+        <v>100</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(D2:D101,"&lt;=10")</f>
+        <v>73</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIFS(D2:D101,"&lt;=10",B2:B101,"smooth")</f>
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIFS(D2:D101,"&lt;=10",B2:B101,"nonsmooth")</f>
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIFS(D2:D101,"&lt;=10",C2:C101,"convex")</f>
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIFS(D2:D101,"&lt;=10",C2:C101,"nonconvex")</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
@@ -18705,14 +20299,38 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
+      <c r="D7" s="15">
+        <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50")</f>
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",B2:B101,"smooth")</f>
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",B2:B101,"nonsmooth")</f>
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",C2:C101,"convex")</f>
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",C2:C101,"nonconvex")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -18722,14 +20340,38 @@
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
+      <c r="D8" s="15">
+        <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIF(D2:D101,"&gt;50")</f>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f>COUNTIFS(D2:D101,"&gt;50",B2:B101,"smooth")</f>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIFS(D2:D101,"&gt;50",B2:B101,"nonsmooth")</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIFS(D2:D101,"&gt;50",C2:C101,"convex")</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>COUNTIFS(D2:D101,"&gt;50",C2:C101,"nonconvex")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -18739,14 +20381,14 @@
       <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
+      <c r="D9" s="15">
+        <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -18756,14 +20398,14 @@
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
+      <c r="D10" s="15">
+        <v>3</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
@@ -18773,14 +20415,28 @@
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
+      <c r="D11" s="15">
+        <v>5</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="16">
+        <v>51</v>
+      </c>
+      <c r="H11" s="22">
+        <v>49</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -18790,14 +20446,24 @@
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
+      <c r="D12" s="15">
+        <v>6</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>49</v>
+      </c>
+      <c r="H12" s="16">
+        <v>51</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
@@ -18807,14 +20473,26 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>16</v>
+      <c r="D13" s="15">
+        <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G13" s="16">
+        <v>73</v>
+      </c>
+      <c r="H13" s="21">
+        <v>23</v>
+      </c>
+      <c r="I13" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -18824,14 +20502,15 @@
       <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
+      <c r="D14" s="15">
+        <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -18841,14 +20520,15 @@
       <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>8</v>
+      <c r="D15" s="15">
+        <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
@@ -18858,14 +20538,15 @@
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>16</v>
+      <c r="D16" s="15">
+        <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -18875,14 +20556,15 @@
       <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>30</v>
+      <c r="D17" s="15">
+        <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
@@ -18892,14 +20574,15 @@
       <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>16</v>
+      <c r="D18" s="15">
+        <v>2</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
@@ -18909,14 +20592,14 @@
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>22</v>
+      <c r="D19" s="15">
+        <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
@@ -18926,14 +20609,14 @@
       <c r="C20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>16</v>
+      <c r="D20" s="15">
+        <v>2</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
@@ -18943,14 +20626,14 @@
       <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>16</v>
+      <c r="D21" s="15">
+        <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
@@ -18960,14 +20643,14 @@
       <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>65</v>
+      <c r="D22" s="15">
+        <v>50</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
@@ -18977,14 +20660,14 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>16</v>
+      <c r="D23" s="15">
+        <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -18994,14 +20677,14 @@
       <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>65</v>
+      <c r="D24" s="15">
+        <v>50</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>73</v>
       </c>
@@ -19011,14 +20694,14 @@
       <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>16</v>
+      <c r="D25" s="15">
+        <v>2</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>954</v>
       </c>
@@ -19028,14 +20711,14 @@
       <c r="C26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>16</v>
+      <c r="D26" s="15">
+        <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>960</v>
       </c>
@@ -19045,14 +20728,14 @@
       <c r="C27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>22</v>
+      <c r="D27" s="15">
+        <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>963</v>
       </c>
@@ -19062,14 +20745,14 @@
       <c r="C28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>22</v>
+      <c r="D28" s="15">
+        <v>4</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>966</v>
       </c>
@@ -19079,14 +20762,14 @@
       <c r="C29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>22</v>
+      <c r="D29" s="15">
+        <v>4</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>969</v>
       </c>
@@ -19096,14 +20779,14 @@
       <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>22</v>
+      <c r="D30" s="15">
+        <v>4</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>972</v>
       </c>
@@ -19113,14 +20796,14 @@
       <c r="C31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>18</v>
+      <c r="D31" s="15">
+        <v>5</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>975</v>
       </c>
@@ -19130,14 +20813,14 @@
       <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>18</v>
+      <c r="D32" s="15">
+        <v>5</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>978</v>
       </c>
@@ -19147,14 +20830,14 @@
       <c r="C33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>28</v>
+      <c r="D33" s="15">
+        <v>6</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>981</v>
       </c>
@@ -19164,14 +20847,14 @@
       <c r="C34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>28</v>
+      <c r="D34" s="15">
+        <v>6</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>984</v>
       </c>
@@ -19181,14 +20864,14 @@
       <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>37</v>
+      <c r="D35" s="15">
+        <v>9</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>987</v>
       </c>
@@ -19198,14 +20881,14 @@
       <c r="C36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>32</v>
+      <c r="D36" s="15">
+        <v>7</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>990</v>
       </c>
@@ -19215,14 +20898,14 @@
       <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>16</v>
+      <c r="D37" s="15">
+        <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>992</v>
       </c>
@@ -19232,14 +20915,14 @@
       <c r="C38" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>30</v>
+      <c r="D38" s="15">
+        <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>995</v>
       </c>
@@ -19249,14 +20932,14 @@
       <c r="C39" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>61</v>
+      <c r="D39" s="15">
+        <v>20</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>998</v>
       </c>
@@ -19266,14 +20949,14 @@
       <c r="C40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>30</v>
+      <c r="D40" s="15">
+        <v>10</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>1001</v>
       </c>
@@ -19283,14 +20966,14 @@
       <c r="C41" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>40</v>
+      <c r="D41" s="15">
+        <v>11</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>1004</v>
       </c>
@@ -19300,14 +20983,14 @@
       <c r="C42" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>61</v>
+      <c r="D42" s="15">
+        <v>20</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>1007</v>
       </c>
@@ -19317,14 +21000,14 @@
       <c r="C43" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>40</v>
+      <c r="D43" s="15">
+        <v>11</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>1010</v>
       </c>
@@ -19334,14 +21017,14 @@
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>16</v>
+      <c r="D44" s="15">
+        <v>2</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>1012</v>
       </c>
@@ -19351,14 +21034,14 @@
       <c r="C45" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>13</v>
+      <c r="D45" s="15">
+        <v>3</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>1015</v>
       </c>
@@ -19368,14 +21051,14 @@
       <c r="C46" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>22</v>
+      <c r="D46" s="15">
+        <v>4</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>1018</v>
       </c>
@@ -19385,14 +21068,14 @@
       <c r="C47" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>22</v>
+      <c r="D47" s="15">
+        <v>4</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>1020</v>
       </c>
@@ -19402,14 +21085,14 @@
       <c r="C48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>13</v>
+      <c r="D48" s="15">
+        <v>3</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>1023</v>
       </c>
@@ -19419,14 +21102,14 @@
       <c r="C49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>13</v>
+      <c r="D49" s="15">
+        <v>3</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>1026</v>
       </c>
@@ -19436,14 +21119,14 @@
       <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>22</v>
+      <c r="D50" s="15">
+        <v>4</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>404</v>
       </c>
@@ -19453,14 +21136,14 @@
       <c r="C51" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>30</v>
+      <c r="D51" s="15">
+        <v>10</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>406</v>
       </c>
@@ -19470,14 +21153,14 @@
       <c r="C52" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>26</v>
+      <c r="D52" s="15">
+        <v>100</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>408</v>
       </c>
@@ -19487,14 +21170,14 @@
       <c r="C53" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>48</v>
+      <c r="D53" s="15">
+        <v>15</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>410</v>
       </c>
@@ -19504,14 +21187,14 @@
       <c r="C54" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>61</v>
+      <c r="D54" s="15">
+        <v>20</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>412</v>
       </c>
@@ -19521,14 +21204,14 @@
       <c r="C55" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>119</v>
+      <c r="D55" s="15">
+        <v>200</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>414</v>
       </c>
@@ -19538,14 +21221,14 @@
       <c r="C56" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>75</v>
+      <c r="D56" s="15">
+        <v>25</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>416</v>
       </c>
@@ -19555,14 +21238,14 @@
       <c r="C57" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>12</v>
+      <c r="D57" s="15">
+        <v>30</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>418</v>
       </c>
@@ -19572,14 +21255,14 @@
       <c r="C58" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>149</v>
+      <c r="D58" s="15">
+        <v>300</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>420</v>
       </c>
@@ -19589,14 +21272,14 @@
       <c r="C59" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>97</v>
+      <c r="D59" s="15">
+        <v>35</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>422</v>
       </c>
@@ -19606,14 +21289,14 @@
       <c r="C60" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>107</v>
+      <c r="D60" s="15">
+        <v>40</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>424</v>
       </c>
@@ -19623,14 +21306,14 @@
       <c r="C61" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>117</v>
+      <c r="D61" s="15">
+        <v>45</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>426</v>
       </c>
@@ -19640,14 +21323,14 @@
       <c r="C62" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>18</v>
+      <c r="D62" s="15">
+        <v>5</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>428</v>
       </c>
@@ -19657,14 +21340,14 @@
       <c r="C63" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>65</v>
+      <c r="D63" s="15">
+        <v>50</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>430</v>
       </c>
@@ -19674,14 +21357,14 @@
       <c r="C64" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>30</v>
+      <c r="D64" s="15">
+        <v>10</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>436</v>
       </c>
@@ -19691,14 +21374,14 @@
       <c r="C65" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>30</v>
+      <c r="D65" s="15">
+        <v>10</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>439</v>
       </c>
@@ -19708,14 +21391,14 @@
       <c r="C66" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>30</v>
+      <c r="D66" s="15">
+        <v>10</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>442</v>
       </c>
@@ -19725,14 +21408,14 @@
       <c r="C67" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>30</v>
+      <c r="D67" s="15">
+        <v>10</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>445</v>
       </c>
@@ -19742,14 +21425,14 @@
       <c r="C68" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>30</v>
+      <c r="D68" s="15">
+        <v>10</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>1029</v>
       </c>
@@ -19759,14 +21442,15 @@
       <c r="C69" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>16</v>
+      <c r="D69" s="15">
+        <v>2</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>1031</v>
       </c>
@@ -19776,14 +21460,15 @@
       <c r="C70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>16</v>
+      <c r="D70" s="15">
+        <v>2</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>1034</v>
       </c>
@@ -19793,14 +21478,15 @@
       <c r="C71" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>22</v>
+      <c r="D71" s="15">
+        <v>4</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>1036</v>
       </c>
@@ -19810,14 +21496,15 @@
       <c r="C72" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>18</v>
+      <c r="D72" s="15">
+        <v>5</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>1039</v>
       </c>
@@ -19827,14 +21514,15 @@
       <c r="C73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>18</v>
+      <c r="D73" s="15">
+        <v>5</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>1042</v>
       </c>
@@ -19844,14 +21532,14 @@
       <c r="C74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>28</v>
+      <c r="D74" s="15">
+        <v>6</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>1045</v>
       </c>
@@ -19861,14 +21549,14 @@
       <c r="C75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>30</v>
+      <c r="D75" s="15">
+        <v>10</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>1048</v>
       </c>
@@ -19878,14 +21566,14 @@
       <c r="C76" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>30</v>
+      <c r="D76" s="15">
+        <v>10</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>1051</v>
       </c>
@@ -19895,14 +21583,14 @@
       <c r="C77" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>42</v>
+      <c r="D77" s="15">
+        <v>12</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>1054</v>
       </c>
@@ -19912,14 +21600,14 @@
       <c r="C78" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>61</v>
+      <c r="D78" s="15">
+        <v>20</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>1056</v>
       </c>
@@ -19929,14 +21617,14 @@
       <c r="C79" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>16</v>
+      <c r="D79" s="15">
+        <v>2</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>1058</v>
       </c>
@@ -19946,14 +21634,14 @@
       <c r="C80" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>61</v>
+      <c r="D80" s="15">
+        <v>20</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>1060</v>
       </c>
@@ -19963,14 +21651,14 @@
       <c r="C81" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>124</v>
+      <c r="D81" s="15">
+        <v>48</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>1063</v>
       </c>
@@ -19980,14 +21668,14 @@
       <c r="C82" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>65</v>
+      <c r="D82" s="15">
+        <v>50</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>1065</v>
       </c>
@@ -19997,14 +21685,14 @@
       <c r="C83" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>65</v>
+      <c r="D83" s="15">
+        <v>50</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>1067</v>
       </c>
@@ -20014,14 +21702,14 @@
       <c r="C84" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>65</v>
+      <c r="D84" s="15">
+        <v>50</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>1069</v>
       </c>
@@ -20031,14 +21719,14 @@
       <c r="C85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>48</v>
+      <c r="D85" s="15">
+        <v>15</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>1072</v>
       </c>
@@ -20048,14 +21736,14 @@
       <c r="C86" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>16</v>
+      <c r="D86" s="15">
+        <v>2</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>1074</v>
       </c>
@@ -20065,14 +21753,14 @@
       <c r="C87" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>16</v>
+      <c r="D87" s="15">
+        <v>2</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>1077</v>
       </c>
@@ -20082,14 +21770,14 @@
       <c r="C88" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>16</v>
+      <c r="D88" s="15">
+        <v>2</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>1080</v>
       </c>
@@ -20099,14 +21787,14 @@
       <c r="C89" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>16</v>
+      <c r="D89" s="15">
+        <v>2</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>1083</v>
       </c>
@@ -20116,14 +21804,14 @@
       <c r="C90" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>16</v>
+      <c r="D90" s="15">
+        <v>2</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>1086</v>
       </c>
@@ -20133,14 +21821,14 @@
       <c r="C91" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>16</v>
+      <c r="D91" s="15">
+        <v>2</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>1089</v>
       </c>
@@ -20150,14 +21838,14 @@
       <c r="C92" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>16</v>
+      <c r="D92" s="15">
+        <v>2</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>1112</v>
       </c>
@@ -20167,14 +21855,14 @@
       <c r="C93" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>16</v>
+      <c r="D93" s="15">
+        <v>2</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>1114</v>
       </c>
@@ -20184,14 +21872,14 @@
       <c r="C94" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>16</v>
+      <c r="D94" s="15">
+        <v>2</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>1117</v>
       </c>
@@ -20201,14 +21889,14 @@
       <c r="C95" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>16</v>
+      <c r="D95" s="15">
+        <v>2</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>1120</v>
       </c>
@@ -20218,14 +21906,14 @@
       <c r="C96" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>16</v>
+      <c r="D96" s="15">
+        <v>2</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>1122</v>
       </c>
@@ -20235,14 +21923,14 @@
       <c r="C97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>16</v>
+      <c r="D97" s="15">
+        <v>2</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>1124</v>
       </c>
@@ -20252,14 +21940,14 @@
       <c r="C98" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>16</v>
+      <c r="D98" s="15">
+        <v>2</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>1126</v>
       </c>
@@ -20269,14 +21957,14 @@
       <c r="C99" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>16</v>
+      <c r="D99" s="15">
+        <v>2</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>1128</v>
       </c>
@@ -20286,14 +21974,14 @@
       <c r="C100" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>16</v>
+      <c r="D100" s="15">
+        <v>2</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>1131</v>
       </c>
@@ -20303,31 +21991,38 @@
       <c r="C101" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>16</v>
+      <c r="D101" s="15">
+        <v>2</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E107" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ModelList.xlsx
+++ b/ModelList.xlsx
@@ -8,23 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyisong/Documents/CMU/MS_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE06D0-A6F1-644F-8A97-E679C5A20FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D3D5A7-53A0-5840-AFB1-A81855925646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1440" windowWidth="25720" windowHeight="15520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="1440" windowWidth="25280" windowHeight="15520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
     <sheet name="BBC_CoordianteSearch" sheetId="2" r:id="rId2"/>
     <sheet name="SELECTED" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">SELECTED!$G$2:$H$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">SELECTED!$I$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">SELECTED!$I$2:$I$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">SELECTED!$G$2:$H$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">SELECTED!$I$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">SELECTED!$I$2:$I$8</definedName>
-  </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1346">
   <si>
     <t>index</t>
   </si>
@@ -4073,6 +4065,9 @@
   </si>
   <si>
     <t>libraries</t>
+  </si>
+  <si>
+    <t>My Solution</t>
   </si>
 </sst>
 </file>
@@ -4161,12 +4156,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4181,7 +4182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -4206,12 +4207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -4223,6 +4218,33 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4477,7 +4499,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SELECTED!$F$11:$F$13</c:f>
+              <c:f>SELECTED!$G$11:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4494,7 +4516,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SELECTED!$G$11:$G$13</c:f>
+              <c:f>SELECTED!$H$11:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4670,7 +4692,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SELECTED!$F$11:$F$13</c:f>
+              <c:f>SELECTED!$G$11:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4687,7 +4709,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SELECTED!$H$11:$H$13</c:f>
+              <c:f>SELECTED!$I$11:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4864,7 +4886,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SELECTED!$F$11:$F$13</c:f>
+              <c:f>SELECTED!$G$11:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4881,7 +4903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SELECTED!$I$11:$I$13</c:f>
+              <c:f>SELECTED!$J$11:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5606,16 +5628,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>34324</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>155834</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>289468</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403883</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>15791</xdr:rowOff>
+      <xdr:rowOff>130206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20059,8 +20081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20068,7 +20090,7 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="26" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
@@ -20089,6 +20111,9 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="25" t="s">
+        <v>1345</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>1343</v>
       </c>
@@ -20098,7 +20123,7 @@
       <c r="I1" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -20118,7 +20143,10 @@
       <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="26">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -20152,7 +20180,10 @@
       <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="F3" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="G3" s="23"/>
       <c r="H3" t="s">
         <v>77</v>
       </c>
@@ -20184,7 +20215,10 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="27">
+        <v>9.9999999999999991E+28</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -20218,7 +20252,10 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="F5" s="28">
+        <v>5.74</v>
+      </c>
+      <c r="G5" s="23"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
@@ -20226,16 +20263,16 @@
         <f>COUNTIF(C2:C101,"nonconvex")</f>
         <v>51</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="23" t="s">
+      <c r="J5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="9" t="s">
@@ -20262,7 +20299,10 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="28">
+        <v>100</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>1342</v>
       </c>
       <c r="H6" t="s">
@@ -20305,7 +20345,10 @@
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="F7" s="28">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="G7" s="24"/>
       <c r="H7" t="s">
         <v>1338</v>
       </c>
@@ -20346,7 +20389,10 @@
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="F8" s="28">
+        <v>6.1349999999999998</v>
+      </c>
+      <c r="G8" s="24"/>
       <c r="H8" t="s">
         <v>1339</v>
       </c>
@@ -20387,6 +20433,9 @@
       <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" s="28">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
@@ -20404,6 +20453,9 @@
       <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F10" s="28">
+        <v>3.64E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -20421,20 +20473,22 @@
       <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="28">
+        <v>3.64E-3</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="H11" s="16">
         <v>51</v>
       </c>
-      <c r="H11" s="22">
+      <c r="I11" s="20">
         <v>49</v>
       </c>
-      <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
@@ -20452,16 +20506,19 @@
       <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="28">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="16">
         <v>49</v>
       </c>
-      <c r="H12" s="16">
+      <c r="I12" s="16">
         <v>51</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
@@ -20479,16 +20536,19 @@
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="28">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>1342</v>
       </c>
-      <c r="G13" s="16">
+      <c r="H13" s="16">
         <v>73</v>
       </c>
-      <c r="H13" s="21">
+      <c r="I13" s="19">
         <v>23</v>
       </c>
-      <c r="I13" s="21">
+      <c r="J13" s="19">
         <v>4</v>
       </c>
     </row>
@@ -20508,7 +20568,10 @@
       <c r="E14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -20526,7 +20589,10 @@
       <c r="E15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
@@ -20544,7 +20610,10 @@
       <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="F16" s="28">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -20562,7 +20631,10 @@
       <c r="E17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="F17" s="26">
+        <v>4.79535</v>
+      </c>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
@@ -20580,7 +20652,10 @@
       <c r="E18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="F18" s="27">
+        <v>1000000000000</v>
+      </c>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
@@ -20598,6 +20673,9 @@
       <c r="E19" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F19" s="28">
+        <v>88966</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
@@ -20615,6 +20693,9 @@
       <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F20" s="28">
+        <v>-1.02</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
@@ -20632,6 +20713,9 @@
       <c r="E21" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F21" s="28">
+        <v>-1.03</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
@@ -20649,6 +20733,9 @@
       <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F22" s="26">
+        <v>14.879</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
@@ -20666,6 +20753,9 @@
       <c r="E23" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F23" s="28">
+        <v>-35.795999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
@@ -20683,6 +20773,9 @@
       <c r="E24" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F24" s="26">
+        <v>48.55</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
@@ -20700,6 +20793,9 @@
       <c r="E25" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F25" s="28">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
@@ -20717,6 +20813,9 @@
       <c r="E26" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F26" s="26">
+        <v>3.41</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
@@ -20734,6 +20833,9 @@
       <c r="E27" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F27" s="26">
+        <v>383.1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
@@ -20751,6 +20853,9 @@
       <c r="E28" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F28" s="26">
+        <v>0.254</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
@@ -20768,6 +20873,9 @@
       <c r="E29" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F29" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
@@ -20785,6 +20893,9 @@
       <c r="E30" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F30" s="27">
+        <v>1E+80</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
@@ -20802,6 +20913,9 @@
       <c r="E31" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F31" s="26">
+        <v>-10000.4</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
@@ -20819,8 +20933,11 @@
       <c r="E32" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" s="26">
+        <v>1.7178199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>978</v>
       </c>
@@ -20836,8 +20953,11 @@
       <c r="E33" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" s="26">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>981</v>
       </c>
@@ -20853,8 +20973,11 @@
       <c r="E34" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" s="27">
+        <v>1E+80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>984</v>
       </c>
@@ -20870,8 +20993,11 @@
       <c r="E35" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35" s="26">
+        <v>0.25140000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>987</v>
       </c>
@@ -20887,8 +21013,11 @@
       <c r="E36" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36" s="26">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>990</v>
       </c>
@@ -20904,8 +21033,11 @@
       <c r="E37" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>992</v>
       </c>
@@ -20921,8 +21053,11 @@
       <c r="E38" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" s="26">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>995</v>
       </c>
@@ -20938,8 +21073,11 @@
       <c r="E39" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" s="26">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>998</v>
       </c>
@@ -20955,8 +21093,11 @@
       <c r="E40" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" s="28">
+        <v>54.598199999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>1001</v>
       </c>
@@ -20972,8 +21113,11 @@
       <c r="E41" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" s="28">
+        <v>264.40600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>1004</v>
       </c>
@@ -20989,8 +21133,11 @@
       <c r="E42" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>1007</v>
       </c>
@@ -21006,8 +21153,11 @@
       <c r="E43" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" s="26">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>1010</v>
       </c>
@@ -21023,8 +21173,11 @@
       <c r="E44" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>1012</v>
       </c>
@@ -21040,8 +21193,11 @@
       <c r="E45" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>1015</v>
       </c>
@@ -21057,8 +21213,11 @@
       <c r="E46" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" s="26">
+        <v>-27.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>1018</v>
       </c>
@@ -21074,8 +21233,11 @@
       <c r="E47" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" s="26">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>1020</v>
       </c>
@@ -21091,8 +21253,11 @@
       <c r="E48" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>1023</v>
       </c>
@@ -21108,8 +21273,11 @@
       <c r="E49" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49" s="27">
+        <v>1E+80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>1026</v>
       </c>
@@ -21125,8 +21293,11 @@
       <c r="E50" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>404</v>
       </c>
@@ -21142,8 +21313,11 @@
       <c r="E51" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" s="26">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>406</v>
       </c>
@@ -21159,8 +21333,11 @@
       <c r="E52" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" s="26">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>408</v>
       </c>
@@ -21176,8 +21353,11 @@
       <c r="E53" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="26">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>410</v>
       </c>
@@ -21193,8 +21373,11 @@
       <c r="E54" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54" s="26">
+        <v>2.7480000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>412</v>
       </c>
@@ -21210,8 +21393,11 @@
       <c r="E55" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" s="26">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>414</v>
       </c>
@@ -21227,8 +21413,11 @@
       <c r="E56" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" s="26">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>416</v>
       </c>
@@ -21244,8 +21433,11 @@
       <c r="E57" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57" s="26">
+        <v>4.1950000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>418</v>
       </c>
@@ -21261,8 +21453,11 @@
       <c r="E58" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" s="26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>420</v>
       </c>
@@ -21278,8 +21473,11 @@
       <c r="E59" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59" s="26">
+        <v>4.9180000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>422</v>
       </c>
@@ -21295,8 +21493,11 @@
       <c r="E60" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F60" s="26">
+        <v>5.6420000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>424</v>
       </c>
@@ -21312,8 +21513,11 @@
       <c r="E61" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F61" s="26">
+        <v>6.3650000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>426</v>
       </c>
@@ -21329,8 +21533,11 @@
       <c r="E62" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62" s="26">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>428</v>
       </c>
@@ -21346,8 +21553,11 @@
       <c r="E63" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F63" s="26">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>430</v>
       </c>
@@ -21362,6 +21572,9 @@
       </c>
       <c r="E64" s="9" t="s">
         <v>432</v>
+      </c>
+      <c r="F64" s="26">
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -21380,6 +21593,9 @@
       <c r="E65" s="9" t="s">
         <v>432</v>
       </c>
+      <c r="F65" s="26">
+        <v>0.10299999999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
@@ -21397,6 +21613,9 @@
       <c r="E66" s="9" t="s">
         <v>432</v>
       </c>
+      <c r="F66" s="26">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
@@ -21414,6 +21633,9 @@
       <c r="E67" s="9" t="s">
         <v>432</v>
       </c>
+      <c r="F67" s="26">
+        <v>5.8999999999999999E-3</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
@@ -21431,6 +21653,9 @@
       <c r="E68" s="9" t="s">
         <v>432</v>
       </c>
+      <c r="F68" s="26">
+        <v>9.1959999999999993E-3</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
@@ -21448,7 +21673,7 @@
       <c r="E69" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
@@ -21466,7 +21691,9 @@
       <c r="E70" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
@@ -21484,7 +21711,9 @@
       <c r="E71" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="29">
+        <v>-27</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
@@ -21502,7 +21731,9 @@
       <c r="E72" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="29">
+        <v>30</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
@@ -21520,7 +21751,9 @@
       <c r="E73" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="29">
+        <v>19</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
@@ -21538,6 +21771,7 @@
       <c r="E74" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F74" s="31"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
@@ -21555,6 +21789,9 @@
       <c r="E75" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F75" s="26">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
@@ -21572,6 +21809,9 @@
       <c r="E76" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F76" s="26">
+        <v>15.54</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
@@ -21589,6 +21829,9 @@
       <c r="E77" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F77" s="26">
+        <v>20.417999999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
@@ -21606,6 +21849,9 @@
       <c r="E78" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F78" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
@@ -21623,6 +21869,9 @@
       <c r="E79" s="9" t="s">
         <v>956</v>
       </c>
+      <c r="F79" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
@@ -21640,8 +21889,11 @@
       <c r="E80" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F80" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>1060</v>
       </c>
@@ -21657,8 +21909,11 @@
       <c r="E81" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F81" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>1063</v>
       </c>
@@ -21674,8 +21929,11 @@
       <c r="E82" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F82" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>1065</v>
       </c>
@@ -21691,8 +21949,11 @@
       <c r="E83" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F83" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>1067</v>
       </c>
@@ -21708,8 +21969,11 @@
       <c r="E84" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F84" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>1069</v>
       </c>
@@ -21725,8 +21989,11 @@
       <c r="E85" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F85" s="26">
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>1072</v>
       </c>
@@ -21742,8 +22009,11 @@
       <c r="E86" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F86" s="26">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>1074</v>
       </c>
@@ -21759,8 +22029,11 @@
       <c r="E87" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F87" s="26">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>1077</v>
       </c>
@@ -21776,8 +22049,11 @@
       <c r="E88" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F88" s="26">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>1080</v>
       </c>
@@ -21793,8 +22069,11 @@
       <c r="E89" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F89" s="26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>1083</v>
       </c>
@@ -21810,8 +22089,11 @@
       <c r="E90" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F90" s="28">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>1086</v>
       </c>
@@ -21827,8 +22109,11 @@
       <c r="E91" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F91" s="26">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>1089</v>
       </c>
@@ -21844,8 +22129,11 @@
       <c r="E92" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F92" s="26">
+        <v>-0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>1112</v>
       </c>
@@ -21861,8 +22149,11 @@
       <c r="E93" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F93" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>1114</v>
       </c>
@@ -21878,8 +22169,11 @@
       <c r="E94" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F94" s="26">
+        <v>50.08</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>1117</v>
       </c>
@@ -21895,8 +22189,11 @@
       <c r="E95" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F95" s="28">
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>1120</v>
       </c>
@@ -21912,8 +22209,11 @@
       <c r="E96" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F96" s="26">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>1122</v>
       </c>
@@ -21929,8 +22229,11 @@
       <c r="E97" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F97" s="30">
+        <v>8.1399999999999996E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>1124</v>
       </c>
@@ -21946,8 +22249,11 @@
       <c r="E98" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F98" s="30">
+        <v>1.91E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>1126</v>
       </c>
@@ -21963,8 +22269,11 @@
       <c r="E99" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F99" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>1128</v>
       </c>
@@ -21980,8 +22289,11 @@
       <c r="E100" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F100" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>1131</v>
       </c>
@@ -21997,23 +22309,26 @@
       <c r="E101" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F101" s="26">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E104" s="9"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E106" s="9"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E107" s="9"/>
     </row>
   </sheetData>

--- a/ModelList.xlsx
+++ b/ModelList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyisong/Documents/CMU/MS_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D3D5A7-53A0-5840-AFB1-A81855925646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE0D21-B5AD-984B-859F-8F050C82EB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1440" windowWidth="25280" windowHeight="15520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="1440" windowWidth="25280" windowHeight="15520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="1349">
   <si>
     <t>index</t>
   </si>
@@ -4068,6 +4068,15 @@
   </si>
   <si>
     <t>My Solution</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -4084,54 +4093,54 @@
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4182,7 +4191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -4218,12 +4227,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4243,6 +4246,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4499,7 +4520,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SELECTED!$G$11:$G$13</c:f>
+              <c:f>SELECTED!$M$10:$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4516,7 +4537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SELECTED!$H$11:$H$13</c:f>
+              <c:f>SELECTED!$N$10:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4692,7 +4713,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SELECTED!$G$11:$G$13</c:f>
+              <c:f>SELECTED!$M$10:$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4709,7 +4730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SELECTED!$I$11:$I$13</c:f>
+              <c:f>SELECTED!$O$10:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4886,7 +4907,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SELECTED!$G$11:$G$13</c:f>
+              <c:f>SELECTED!$M$10:$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4903,7 +4924,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SELECTED!$J$11:$J$13</c:f>
+              <c:f>SELECTED!$P$10:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5628,16 +5649,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>160180</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110069</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>148739</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>403883</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>130206</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>392442</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20079,10 +20100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20090,12 +20111,14 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="24" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -20111,23 +20134,26 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>1345</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="23" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -20143,28 +20169,31 @@
       <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>67.599999999999994</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
         <f>COUNTIF(B2:B101,"smooth")</f>
         <v>51</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2">
+      <c r="O2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2">
         <f>COUNTIF(E2:E101,"princetonlib")</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -20180,26 +20209,29 @@
       <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>0.67</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="32" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3">
         <f>COUNTIF(B2:B101,"nonsmooth")</f>
         <v>49</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f>COUNTIF(E2:E101,"Luksan")</f>
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -20215,28 +20247,31 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>9.9999999999999991E+28</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4">
         <f>COUNTIF(C2:C101,"convex")</f>
         <v>49</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f>COUNTIF(E2:E101,"Nesterov")</f>
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -20252,38 +20287,41 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>5.74</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
         <f>COUNTIF(C2:C101,"nonconvex")</f>
         <v>51</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="21" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f>COUNTIF(E2:E101,"Conn")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -20299,37 +20337,40 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>100</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>1342</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>1337</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>COUNTIF(D2:D101,"&lt;=10")</f>
         <v>73</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>COUNTIFS(D2:D101,"&lt;=10",B2:B101,"smooth")</f>
         <v>36</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>COUNTIFS(D2:D101,"&lt;=10",B2:B101,"nonsmooth")</f>
         <v>37</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f>COUNTIFS(D2:D101,"&lt;=10",C2:C101,"convex")</f>
         <v>28</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f>COUNTIFS(D2:D101,"&lt;=10",C2:C101,"nonconvex")</f>
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
@@ -20345,35 +20386,38 @@
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <v>4.6340000000000003</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" t="s">
+      <c r="G7" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" t="s">
         <v>1338</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50")</f>
         <v>23</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",B2:B101,"smooth")</f>
         <v>11</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",B2:B101,"nonsmooth")</f>
         <v>12</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",C2:C101,"convex")</f>
         <v>18</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f>COUNTIFS(D2:D101,"&gt;10",D2:D101,"&lt;=50",C2:C101,"nonconvex")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -20389,35 +20433,38 @@
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <v>6.1349999999999998</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" t="s">
+      <c r="G8" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" t="s">
         <v>1339</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>COUNTIF(D2:D101,"&gt;50")</f>
         <v>4</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>COUNTIFS(D2:D101,"&gt;50",B2:B101,"smooth")</f>
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>COUNTIFS(D2:D101,"&gt;50",B2:B101,"nonsmooth")</f>
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>COUNTIFS(D2:D101,"&gt;50",C2:C101,"convex")</f>
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f>COUNTIFS(D2:D101,"&gt;50",C2:C101,"nonconvex")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -20433,11 +20480,14 @@
       <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G9" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -20453,11 +20503,24 @@
       <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>3.64E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G10" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="16">
+        <v>51</v>
+      </c>
+      <c r="O10" s="20">
+        <v>49</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
@@ -20473,24 +20536,25 @@
       <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="26">
         <v>3.64E-3</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="16">
+        <v>49</v>
+      </c>
+      <c r="O11" s="16">
         <v>51</v>
       </c>
-      <c r="I11" s="20">
-        <v>49</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -20506,21 +20570,26 @@
       <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="16">
-        <v>49</v>
-      </c>
-      <c r="I12" s="16">
-        <v>51</v>
-      </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G12" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>1342</v>
+      </c>
+      <c r="N12" s="16">
+        <v>73</v>
+      </c>
+      <c r="O12" s="19">
+        <v>23</v>
+      </c>
+      <c r="P12" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
@@ -20536,23 +20605,14 @@
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H13" s="16">
-        <v>73</v>
-      </c>
-      <c r="I13" s="19">
-        <v>23</v>
-      </c>
-      <c r="J13" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G13" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -20568,12 +20628,15 @@
       <c r="E14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <v>0</v>
       </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G14" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -20589,12 +20652,15 @@
       <c r="E15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="26">
         <v>0</v>
       </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G15" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
@@ -20610,12 +20676,15 @@
       <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="26">
         <v>0.39789999999999998</v>
       </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -20631,12 +20700,15 @@
       <c r="E17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>4.79535</v>
       </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G17" s="34" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
@@ -20652,12 +20724,15 @@
       <c r="E18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <v>1000000000000</v>
       </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G18" s="35" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
@@ -20673,11 +20748,14 @@
       <c r="E19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="26">
         <v>88966</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G19" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
@@ -20693,11 +20771,14 @@
       <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="26">
         <v>-1.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
@@ -20713,11 +20794,14 @@
       <c r="E21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="26">
         <v>-1.03</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G21" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
@@ -20733,11 +20817,14 @@
       <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="24">
         <v>14.879</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G22" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
@@ -20753,11 +20840,14 @@
       <c r="E23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <v>-35.795999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G23" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -20773,11 +20863,14 @@
       <c r="E24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <v>48.55</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G24" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>73</v>
       </c>
@@ -20793,11 +20886,14 @@
       <c r="E25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="26">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G25" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>954</v>
       </c>
@@ -20813,11 +20909,14 @@
       <c r="E26" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G26" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>960</v>
       </c>
@@ -20833,11 +20932,14 @@
       <c r="E27" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <v>383.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>963</v>
       </c>
@@ -20853,11 +20955,14 @@
       <c r="E28" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="24">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G28" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>966</v>
       </c>
@@ -20873,11 +20978,14 @@
       <c r="E29" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>969</v>
       </c>
@@ -20893,11 +21001,14 @@
       <c r="E30" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="25">
         <v>1E+80</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>972</v>
       </c>
@@ -20913,11 +21024,14 @@
       <c r="E31" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="24">
         <v>-10000.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G31" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>975</v>
       </c>
@@ -20933,11 +21047,14 @@
       <c r="E32" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="24">
         <v>1.7178199999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>978</v>
       </c>
@@ -20953,11 +21070,14 @@
       <c r="E33" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="24">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>981</v>
       </c>
@@ -20973,11 +21093,14 @@
       <c r="E34" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="25">
         <v>1E+80</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>984</v>
       </c>
@@ -20993,11 +21116,14 @@
       <c r="E35" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="24">
         <v>0.25140000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>987</v>
       </c>
@@ -21013,11 +21139,14 @@
       <c r="E36" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="24">
         <v>1177</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>990</v>
       </c>
@@ -21033,11 +21162,14 @@
       <c r="E37" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>992</v>
       </c>
@@ -21053,11 +21185,14 @@
       <c r="E38" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="24">
         <v>6210</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>995</v>
       </c>
@@ -21073,11 +21208,14 @@
       <c r="E39" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="24">
         <v>1064</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>998</v>
       </c>
@@ -21093,11 +21231,14 @@
       <c r="E40" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="26">
         <v>54.598199999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>1001</v>
       </c>
@@ -21113,11 +21254,14 @@
       <c r="E41" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="26">
         <v>264.40600000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>1004</v>
       </c>
@@ -21133,11 +21277,14 @@
       <c r="E42" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>1007</v>
       </c>
@@ -21153,11 +21300,14 @@
       <c r="E43" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="24">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>1010</v>
       </c>
@@ -21173,11 +21323,14 @@
       <c r="E44" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>1012</v>
       </c>
@@ -21193,11 +21346,14 @@
       <c r="E45" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>1015</v>
       </c>
@@ -21213,11 +21369,14 @@
       <c r="E46" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="24">
         <v>-27.69</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>1018</v>
       </c>
@@ -21233,11 +21392,14 @@
       <c r="E47" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="24">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>1020</v>
       </c>
@@ -21253,11 +21415,14 @@
       <c r="E48" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="24">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>1023</v>
       </c>
@@ -21273,11 +21438,14 @@
       <c r="E49" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="25">
         <v>1E+80</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>1026</v>
       </c>
@@ -21293,11 +21461,14 @@
       <c r="E50" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="24">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>404</v>
       </c>
@@ -21313,11 +21484,14 @@
       <c r="E51" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="24">
         <v>1.302</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>406</v>
       </c>
@@ -21333,11 +21507,14 @@
       <c r="E52" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F52" s="24">
         <v>14.321999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>408</v>
       </c>
@@ -21353,11 +21530,14 @@
       <c r="E53" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="24">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>410</v>
       </c>
@@ -21373,11 +21553,14 @@
       <c r="E54" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="24">
         <v>2.7480000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>412</v>
       </c>
@@ -21393,11 +21576,14 @@
       <c r="E55" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="24">
         <v>28.78</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>414</v>
       </c>
@@ -21413,11 +21599,14 @@
       <c r="E56" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F56" s="24">
         <v>3.472</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>416</v>
       </c>
@@ -21433,11 +21622,14 @@
       <c r="E57" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="24">
         <v>4.1950000000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>418</v>
       </c>
@@ -21453,11 +21645,14 @@
       <c r="E58" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="24">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>420</v>
       </c>
@@ -21473,11 +21668,14 @@
       <c r="E59" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="24">
         <v>4.9180000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>422</v>
       </c>
@@ -21493,11 +21691,14 @@
       <c r="E60" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="24">
         <v>5.6420000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>424</v>
       </c>
@@ -21513,11 +21714,14 @@
       <c r="E61" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="24">
         <v>6.3650000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>426</v>
       </c>
@@ -21533,11 +21737,14 @@
       <c r="E62" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="24">
         <v>9.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>428</v>
       </c>
@@ -21553,11 +21760,14 @@
       <c r="E63" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="24">
         <v>7.08</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>430</v>
       </c>
@@ -21573,11 +21783,14 @@
       <c r="E64" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F64" s="24">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>436</v>
       </c>
@@ -21593,11 +21806,14 @@
       <c r="E65" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F65" s="26">
+      <c r="F65" s="24">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>439</v>
       </c>
@@ -21613,11 +21829,14 @@
       <c r="E66" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F66" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>442</v>
       </c>
@@ -21633,11 +21852,14 @@
       <c r="E67" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F67" s="24">
         <v>5.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>445</v>
       </c>
@@ -21653,11 +21875,14 @@
       <c r="E68" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F68" s="26">
+      <c r="F68" s="24">
         <v>9.1959999999999993E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>1029</v>
       </c>
@@ -21673,9 +21898,12 @@
       <c r="E69" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F69" s="27"/>
+      <c r="G69" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>1031</v>
       </c>
@@ -21691,11 +21919,14 @@
       <c r="E70" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>1034</v>
       </c>
@@ -21711,11 +21942,14 @@
       <c r="E71" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="27">
         <v>-27</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>1036</v>
       </c>
@@ -21731,11 +21965,14 @@
       <c r="E72" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="27">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>1039</v>
       </c>
@@ -21751,11 +21988,14 @@
       <c r="E73" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="27">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>1042</v>
       </c>
@@ -21771,9 +22011,12 @@
       <c r="E74" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F74" s="31"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F74" s="29"/>
+      <c r="G74" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>1045</v>
       </c>
@@ -21789,11 +22032,14 @@
       <c r="E75" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F75" s="26">
+      <c r="F75" s="24">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>1048</v>
       </c>
@@ -21809,11 +22055,14 @@
       <c r="E76" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F76" s="26">
+      <c r="F76" s="24">
         <v>15.54</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>1051</v>
       </c>
@@ -21829,11 +22078,14 @@
       <c r="E77" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F77" s="26">
+      <c r="F77" s="24">
         <v>20.417999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>1054</v>
       </c>
@@ -21849,11 +22101,14 @@
       <c r="E78" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>1056</v>
       </c>
@@ -21869,11 +22124,14 @@
       <c r="E79" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>1058</v>
       </c>
@@ -21889,11 +22147,14 @@
       <c r="E80" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>1060</v>
       </c>
@@ -21909,11 +22170,14 @@
       <c r="E81" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F81" s="26">
+      <c r="F81" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>1063</v>
       </c>
@@ -21929,11 +22193,14 @@
       <c r="E82" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F82" s="28">
+      <c r="F82" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>1065</v>
       </c>
@@ -21949,11 +22216,14 @@
       <c r="E83" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>1067</v>
       </c>
@@ -21969,11 +22239,14 @@
       <c r="E84" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F84" s="28">
+      <c r="F84" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>1069</v>
       </c>
@@ -21989,11 +22262,14 @@
       <c r="E85" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F85" s="24">
         <v>9720</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>1072</v>
       </c>
@@ -22009,11 +22285,14 @@
       <c r="E86" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="24">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>1074</v>
       </c>
@@ -22029,11 +22308,14 @@
       <c r="E87" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="24">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>1077</v>
       </c>
@@ -22049,11 +22331,14 @@
       <c r="E88" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F88" s="26">
+      <c r="F88" s="24">
         <v>-2.39</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>1080</v>
       </c>
@@ -22069,11 +22354,14 @@
       <c r="E89" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F89" s="26">
+      <c r="F89" s="24">
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>1083</v>
       </c>
@@ -22089,11 +22377,14 @@
       <c r="E90" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F90" s="28">
+      <c r="F90" s="26">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>1086</v>
       </c>
@@ -22109,11 +22400,14 @@
       <c r="E91" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F91" s="26">
+      <c r="F91" s="24">
         <v>-7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G91" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>1089</v>
       </c>
@@ -22129,11 +22423,14 @@
       <c r="E92" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="24">
         <v>-0.59799999999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>1112</v>
       </c>
@@ -22149,11 +22446,14 @@
       <c r="E93" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="28">
+      <c r="F93" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>1114</v>
       </c>
@@ -22169,11 +22469,14 @@
       <c r="E94" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="26">
+      <c r="F94" s="24">
         <v>50.08</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>1117</v>
       </c>
@@ -22189,11 +22492,14 @@
       <c r="E95" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="26">
         <v>0.18360000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95" s="34" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>1120</v>
       </c>
@@ -22209,11 +22515,14 @@
       <c r="E96" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="26">
+      <c r="F96" s="24">
         <v>4.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G96" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>1122</v>
       </c>
@@ -22229,11 +22538,14 @@
       <c r="E97" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="30">
+      <c r="F97" s="28">
         <v>8.1399999999999996E-7</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G97" s="35" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>1124</v>
       </c>
@@ -22249,11 +22561,14 @@
       <c r="E98" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98" s="28">
         <v>1.91E-5</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G98" s="35" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>1126</v>
       </c>
@@ -22269,11 +22584,14 @@
       <c r="E99" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="26">
+      <c r="F99" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G99" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>1128</v>
       </c>
@@ -22289,11 +22607,14 @@
       <c r="E100" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="26">
+      <c r="F100" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G100" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>1131</v>
       </c>
@@ -22309,33 +22630,36 @@
       <c r="E101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="26">
+      <c r="F101" s="24">
         <v>0.99299999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G101" s="32" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E104" s="9"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E106" s="9"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E107" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModelList.xlsx
+++ b/ModelList.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyisong/Documents/CMU/MS_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjuso\Documents\Graduate\MS_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE0D21-B5AD-984B-859F-8F050C82EB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="1440" windowWidth="25280" windowHeight="15520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="1440" windowWidth="19524" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
     <sheet name="BBC_CoordianteSearch" sheetId="2" r:id="rId2"/>
     <sheet name="SELECTED" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4840" uniqueCount="1354">
   <si>
     <t>index</t>
   </si>
@@ -4077,12 +4076,27 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>smooth+nonconvex</t>
+  </si>
+  <si>
+    <t>nonsmooth+convex</t>
+  </si>
+  <si>
+    <t>nonsmooth+nonconvex</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>smooth+convex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4248,12 +4262,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4265,6 +4273,12 @@
     </xf>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4323,6 +4337,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -4390,7 +4405,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-AF46-444D-9031-E48A2FBA9EF9}"/>
                 </c:ext>
@@ -4398,6 +4415,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4421,7 +4439,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-AF46-444D-9031-E48A2FBA9EF9}"/>
                 </c:ext>
@@ -4429,6 +4449,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4457,7 +4478,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-AF46-444D-9031-E48A2FBA9EF9}"/>
                 </c:ext>
@@ -4578,6 +4601,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4597,7 +4621,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-AF46-444D-9031-E48A2FBA9EF9}"/>
                 </c:ext>
@@ -4605,6 +4631,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4624,7 +4651,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-AF46-444D-9031-E48A2FBA9EF9}"/>
                 </c:ext>
@@ -4632,6 +4661,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4652,7 +4682,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-AF46-444D-9031-E48A2FBA9EF9}"/>
                 </c:ext>
@@ -4843,7 +4875,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-AF46-444D-9031-E48A2FBA9EF9}"/>
                 </c:ext>
@@ -5948,26 +5982,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J503"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H169" sqref="H169:H178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5999,7 +6034,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -6025,7 +6060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -6051,7 +6086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -6077,7 +6112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -6103,7 +6138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -6129,7 +6164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -6155,7 +6190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -6181,7 +6216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
@@ -6207,7 +6242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -6233,7 +6268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -6259,7 +6294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -6285,7 +6320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -6311,7 +6346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
@@ -6337,7 +6372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -6363,7 +6398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -6389,7 +6424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -6415,7 +6450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -6441,7 +6476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
@@ -6467,7 +6502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
@@ -6493,7 +6528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>61</v>
       </c>
@@ -6519,7 +6554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -6545,7 +6580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
@@ -6571,7 +6606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>70</v>
       </c>
@@ -6597,7 +6632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>72</v>
       </c>
@@ -6623,7 +6658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
@@ -6649,7 +6684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -6675,7 +6710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>82</v>
       </c>
@@ -6701,7 +6736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>84</v>
       </c>
@@ -6727,7 +6762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
@@ -6753,7 +6788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>12</v>
       </c>
@@ -6779,7 +6814,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>89</v>
       </c>
@@ -6805,7 +6840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>91</v>
       </c>
@@ -6831,7 +6866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>93</v>
       </c>
@@ -6857,7 +6892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>95</v>
       </c>
@@ -6883,7 +6918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>97</v>
       </c>
@@ -6909,7 +6944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>99</v>
       </c>
@@ -6935,7 +6970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>101</v>
       </c>
@@ -6961,7 +6996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>103</v>
       </c>
@@ -6987,7 +7022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>105</v>
       </c>
@@ -7013,7 +7048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>107</v>
       </c>
@@ -7039,7 +7074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>109</v>
       </c>
@@ -7065,7 +7100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>111</v>
       </c>
@@ -7091,7 +7126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>113</v>
       </c>
@@ -7117,7 +7152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>115</v>
       </c>
@@ -7143,7 +7178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>117</v>
       </c>
@@ -7169,7 +7204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>120</v>
       </c>
@@ -7195,7 +7230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>122</v>
       </c>
@@ -7221,7 +7256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>124</v>
       </c>
@@ -7247,7 +7282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>126</v>
       </c>
@@ -7273,7 +7308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>65</v>
       </c>
@@ -7299,7 +7334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>129</v>
       </c>
@@ -7325,7 +7360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>131</v>
       </c>
@@ -7351,7 +7386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>133</v>
       </c>
@@ -7377,7 +7412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>135</v>
       </c>
@@ -7403,7 +7438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>137</v>
       </c>
@@ -7429,7 +7464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>139</v>
       </c>
@@ -7455,7 +7490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>141</v>
       </c>
@@ -7481,7 +7516,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>143</v>
       </c>
@@ -7507,7 +7542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>145</v>
       </c>
@@ -7533,7 +7568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>147</v>
       </c>
@@ -7559,7 +7594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>150</v>
       </c>
@@ -7585,7 +7620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>152</v>
       </c>
@@ -7611,7 +7646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>154</v>
       </c>
@@ -7637,7 +7672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>156</v>
       </c>
@@ -7663,7 +7698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>158</v>
       </c>
@@ -7689,7 +7724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>160</v>
       </c>
@@ -7715,7 +7750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>162</v>
       </c>
@@ -7741,7 +7776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>164</v>
       </c>
@@ -7767,7 +7802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>166</v>
       </c>
@@ -7793,7 +7828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>168</v>
       </c>
@@ -7819,7 +7854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
@@ -7845,7 +7880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>172</v>
       </c>
@@ -7871,7 +7906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>174</v>
       </c>
@@ -7897,7 +7932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>176</v>
       </c>
@@ -7923,7 +7958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>178</v>
       </c>
@@ -7949,7 +7984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>180</v>
       </c>
@@ -7975,7 +8010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>182</v>
       </c>
@@ -8001,7 +8036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>184</v>
       </c>
@@ -8027,7 +8062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>186</v>
       </c>
@@ -8053,7 +8088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>188</v>
       </c>
@@ -8079,7 +8114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>190</v>
       </c>
@@ -8105,7 +8140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>192</v>
       </c>
@@ -8131,7 +8166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>194</v>
       </c>
@@ -8157,7 +8192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>196</v>
       </c>
@@ -8183,7 +8218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
@@ -8209,7 +8244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>200</v>
       </c>
@@ -8235,7 +8270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>202</v>
       </c>
@@ -8261,7 +8296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>204</v>
       </c>
@@ -8287,7 +8322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>206</v>
       </c>
@@ -8313,7 +8348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>208</v>
       </c>
@@ -8339,7 +8374,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>212</v>
       </c>
@@ -8365,7 +8400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>215</v>
       </c>
@@ -8391,7 +8426,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>218</v>
       </c>
@@ -8417,7 +8452,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>221</v>
       </c>
@@ -8443,7 +8478,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>224</v>
       </c>
@@ -8469,7 +8504,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>227</v>
       </c>
@@ -8495,7 +8530,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>230</v>
       </c>
@@ -8521,7 +8556,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>233</v>
       </c>
@@ -8547,7 +8582,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>236</v>
       </c>
@@ -8573,7 +8608,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>26</v>
       </c>
@@ -8599,7 +8634,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>241</v>
       </c>
@@ -8625,7 +8660,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>244</v>
       </c>
@@ -8651,7 +8686,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>247</v>
       </c>
@@ -8677,7 +8712,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>250</v>
       </c>
@@ -8703,7 +8738,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>253</v>
       </c>
@@ -8729,7 +8764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>256</v>
       </c>
@@ -8755,7 +8790,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>259</v>
       </c>
@@ -8781,7 +8816,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>262</v>
       </c>
@@ -8807,7 +8842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>265</v>
       </c>
@@ -8833,7 +8868,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>268</v>
       </c>
@@ -8859,7 +8894,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>271</v>
       </c>
@@ -8885,7 +8920,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>274</v>
       </c>
@@ -8911,7 +8946,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>277</v>
       </c>
@@ -8937,7 +8972,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>280</v>
       </c>
@@ -8963,7 +8998,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>283</v>
       </c>
@@ -8989,7 +9024,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>286</v>
       </c>
@@ -9015,7 +9050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>289</v>
       </c>
@@ -9041,7 +9076,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>292</v>
       </c>
@@ -9067,7 +9102,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>295</v>
       </c>
@@ -9093,7 +9128,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>298</v>
       </c>
@@ -9119,7 +9154,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>301</v>
       </c>
@@ -9145,7 +9180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>304</v>
       </c>
@@ -9171,7 +9206,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>307</v>
       </c>
@@ -9197,7 +9232,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>310</v>
       </c>
@@ -9223,7 +9258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>313</v>
       </c>
@@ -9249,7 +9284,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>316</v>
       </c>
@@ -9275,7 +9310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>319</v>
       </c>
@@ -9301,7 +9336,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>322</v>
       </c>
@@ -9327,7 +9362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>325</v>
       </c>
@@ -9353,7 +9388,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>328</v>
       </c>
@@ -9379,7 +9414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>331</v>
       </c>
@@ -9405,7 +9440,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>334</v>
       </c>
@@ -9431,7 +9466,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>337</v>
       </c>
@@ -9457,7 +9492,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>340</v>
       </c>
@@ -9483,7 +9518,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>343</v>
       </c>
@@ -9509,7 +9544,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>346</v>
       </c>
@@ -9535,7 +9570,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>349</v>
       </c>
@@ -9561,7 +9596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>352</v>
       </c>
@@ -9587,7 +9622,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>355</v>
       </c>
@@ -9613,7 +9648,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>358</v>
       </c>
@@ -9639,7 +9674,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>361</v>
       </c>
@@ -9665,7 +9700,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>364</v>
       </c>
@@ -9691,7 +9726,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>367</v>
       </c>
@@ -9717,7 +9752,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>370</v>
       </c>
@@ -9743,7 +9778,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>373</v>
       </c>
@@ -9769,7 +9804,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>376</v>
       </c>
@@ -9795,7 +9830,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>379</v>
       </c>
@@ -9821,7 +9856,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>382</v>
       </c>
@@ -9847,7 +9882,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>385</v>
       </c>
@@ -9873,7 +9908,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>388</v>
       </c>
@@ -9899,7 +9934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>391</v>
       </c>
@@ -9925,7 +9960,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>394</v>
       </c>
@@ -9951,7 +9986,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>397</v>
       </c>
@@ -9977,7 +10012,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>400</v>
       </c>
@@ -10003,7 +10038,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>403</v>
       </c>
@@ -10029,7 +10064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>405</v>
       </c>
@@ -10055,7 +10090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>407</v>
       </c>
@@ -10081,7 +10116,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>409</v>
       </c>
@@ -10107,7 +10142,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>411</v>
       </c>
@@ -10133,7 +10168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>413</v>
       </c>
@@ -10159,7 +10194,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>415</v>
       </c>
@@ -10185,7 +10220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>417</v>
       </c>
@@ -10211,7 +10246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>419</v>
       </c>
@@ -10237,7 +10272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>421</v>
       </c>
@@ -10263,7 +10298,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>423</v>
       </c>
@@ -10289,7 +10324,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>425</v>
       </c>
@@ -10315,7 +10350,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>427</v>
       </c>
@@ -10341,7 +10376,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>429</v>
       </c>
@@ -10373,7 +10408,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>435</v>
       </c>
@@ -10405,7 +10440,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>438</v>
       </c>
@@ -10437,7 +10472,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>441</v>
       </c>
@@ -10469,7 +10504,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>444</v>
       </c>
@@ -10501,7 +10536,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>447</v>
       </c>
@@ -10533,7 +10568,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>450</v>
       </c>
@@ -10565,7 +10600,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>453</v>
       </c>
@@ -10597,7 +10632,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>456</v>
       </c>
@@ -10629,7 +10664,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>459</v>
       </c>
@@ -10661,7 +10696,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>462</v>
       </c>
@@ -10693,7 +10728,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>465</v>
       </c>
@@ -10725,7 +10760,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>468</v>
       </c>
@@ -10757,7 +10792,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>471</v>
       </c>
@@ -10789,7 +10824,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>474</v>
       </c>
@@ -10821,7 +10856,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>477</v>
       </c>
@@ -10853,7 +10888,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>480</v>
       </c>
@@ -10885,7 +10920,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>483</v>
       </c>
@@ -10917,7 +10952,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>486</v>
       </c>
@@ -10949,7 +10984,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>489</v>
       </c>
@@ -10981,7 +11016,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>492</v>
       </c>
@@ -11013,7 +11048,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>495</v>
       </c>
@@ -11045,7 +11080,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>498</v>
       </c>
@@ -11077,7 +11112,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>501</v>
       </c>
@@ -11109,7 +11144,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>504</v>
       </c>
@@ -11141,7 +11176,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>507</v>
       </c>
@@ -11173,7 +11208,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>510</v>
       </c>
@@ -11205,7 +11240,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>513</v>
       </c>
@@ -11237,7 +11272,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>516</v>
       </c>
@@ -11269,7 +11304,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>519</v>
       </c>
@@ -11301,7 +11336,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>522</v>
       </c>
@@ -11333,7 +11368,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>525</v>
       </c>
@@ -11365,7 +11400,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>119</v>
       </c>
@@ -11397,7 +11432,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>530</v>
       </c>
@@ -11429,7 +11464,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>533</v>
       </c>
@@ -11461,7 +11496,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>536</v>
       </c>
@@ -11493,7 +11528,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>539</v>
       </c>
@@ -11525,7 +11560,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>542</v>
       </c>
@@ -11557,7 +11592,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>545</v>
       </c>
@@ -11589,7 +11624,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>548</v>
       </c>
@@ -11621,7 +11656,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>551</v>
       </c>
@@ -11653,7 +11688,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>554</v>
       </c>
@@ -11685,7 +11720,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>557</v>
       </c>
@@ -11717,7 +11752,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>560</v>
       </c>
@@ -11749,7 +11784,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>563</v>
       </c>
@@ -11781,7 +11816,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>566</v>
       </c>
@@ -11813,7 +11848,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>569</v>
       </c>
@@ -11845,7 +11880,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>572</v>
       </c>
@@ -11877,7 +11912,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>575</v>
       </c>
@@ -11909,7 +11944,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>578</v>
       </c>
@@ -11941,7 +11976,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>581</v>
       </c>
@@ -11973,7 +12008,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>584</v>
       </c>
@@ -12005,7 +12040,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>587</v>
       </c>
@@ -12037,7 +12072,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>590</v>
       </c>
@@ -12069,7 +12104,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>593</v>
       </c>
@@ -12101,7 +12136,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>596</v>
       </c>
@@ -12133,7 +12168,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>599</v>
       </c>
@@ -12165,7 +12200,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>602</v>
       </c>
@@ -12197,7 +12232,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>605</v>
       </c>
@@ -12229,7 +12264,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>608</v>
       </c>
@@ -12261,7 +12296,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>611</v>
       </c>
@@ -12293,7 +12328,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>614</v>
       </c>
@@ -12325,7 +12360,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>617</v>
       </c>
@@ -12357,7 +12392,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>620</v>
       </c>
@@ -12389,7 +12424,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>623</v>
       </c>
@@ -12421,7 +12456,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>626</v>
       </c>
@@ -12447,7 +12482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>628</v>
       </c>
@@ -12476,7 +12511,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>630</v>
       </c>
@@ -12502,7 +12537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>632</v>
       </c>
@@ -12528,7 +12563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>634</v>
       </c>
@@ -12554,7 +12589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>636</v>
       </c>
@@ -12580,7 +12615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>638</v>
       </c>
@@ -12606,7 +12641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>640</v>
       </c>
@@ -12632,7 +12667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>642</v>
       </c>
@@ -12661,7 +12696,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>645</v>
       </c>
@@ -12687,7 +12722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>648</v>
       </c>
@@ -12713,7 +12748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>651</v>
       </c>
@@ -12739,7 +12774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>653</v>
       </c>
@@ -12765,7 +12800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>655</v>
       </c>
@@ -12791,7 +12826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>657</v>
       </c>
@@ -12817,7 +12852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>660</v>
       </c>
@@ -12843,7 +12878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>663</v>
       </c>
@@ -12869,7 +12904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>666</v>
       </c>
@@ -12895,7 +12930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>668</v>
       </c>
@@ -12921,7 +12956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>671</v>
       </c>
@@ -12947,7 +12982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>674</v>
       </c>
@@ -12973,7 +13008,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>678</v>
       </c>
@@ -12999,7 +13034,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>681</v>
       </c>
@@ -13025,7 +13060,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>684</v>
       </c>
@@ -13051,7 +13086,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>686</v>
       </c>
@@ -13077,7 +13112,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>688</v>
       </c>
@@ -13103,7 +13138,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>691</v>
       </c>
@@ -13129,7 +13164,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>694</v>
       </c>
@@ -13155,7 +13190,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>697</v>
       </c>
@@ -13181,7 +13216,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>700</v>
       </c>
@@ -13207,7 +13242,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>703</v>
       </c>
@@ -13233,7 +13268,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>705</v>
       </c>
@@ -13259,7 +13294,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>707</v>
       </c>
@@ -13285,7 +13320,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>710</v>
       </c>
@@ -13311,7 +13346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>713</v>
       </c>
@@ -13337,7 +13372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>716</v>
       </c>
@@ -13363,7 +13398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>719</v>
       </c>
@@ -13389,7 +13424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>722</v>
       </c>
@@ -13415,7 +13450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>724</v>
       </c>
@@ -13441,7 +13476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>727</v>
       </c>
@@ -13467,7 +13502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>730</v>
       </c>
@@ -13493,7 +13528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>733</v>
       </c>
@@ -13519,7 +13554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>735</v>
       </c>
@@ -13545,7 +13580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>737</v>
       </c>
@@ -13571,7 +13606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>739</v>
       </c>
@@ -13597,7 +13632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>741</v>
       </c>
@@ -13623,7 +13658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>744</v>
       </c>
@@ -13649,7 +13684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>746</v>
       </c>
@@ -13675,7 +13710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>749</v>
       </c>
@@ -13701,7 +13736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>752</v>
       </c>
@@ -13727,7 +13762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>755</v>
       </c>
@@ -13753,7 +13788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>758</v>
       </c>
@@ -13779,7 +13814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>760</v>
       </c>
@@ -13805,7 +13840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>763</v>
       </c>
@@ -13831,7 +13866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>765</v>
       </c>
@@ -13857,7 +13892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>767</v>
       </c>
@@ -13883,7 +13918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>769</v>
       </c>
@@ -13909,7 +13944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>771</v>
       </c>
@@ -13935,7 +13970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>773</v>
       </c>
@@ -13961,7 +13996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>775</v>
       </c>
@@ -13987,7 +14022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>777</v>
       </c>
@@ -14013,7 +14048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>780</v>
       </c>
@@ -14039,7 +14074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>782</v>
       </c>
@@ -14065,7 +14100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>785</v>
       </c>
@@ -14091,7 +14126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>787</v>
       </c>
@@ -14117,7 +14152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>790</v>
       </c>
@@ -14143,7 +14178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>792</v>
       </c>
@@ -14169,7 +14204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>149</v>
       </c>
@@ -14195,7 +14230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>797</v>
       </c>
@@ -14221,7 +14256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>799</v>
       </c>
@@ -14247,7 +14282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>802</v>
       </c>
@@ -14273,7 +14308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>805</v>
       </c>
@@ -14299,7 +14334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>807</v>
       </c>
@@ -14325,7 +14360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>809</v>
       </c>
@@ -14351,7 +14386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>811</v>
       </c>
@@ -14377,7 +14412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>814</v>
       </c>
@@ -14403,7 +14438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>817</v>
       </c>
@@ -14429,7 +14464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>820</v>
       </c>
@@ -14455,7 +14490,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>823</v>
       </c>
@@ -14481,7 +14516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>826</v>
       </c>
@@ -14507,7 +14542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>829</v>
       </c>
@@ -14533,7 +14568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>831</v>
       </c>
@@ -14559,7 +14594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>834</v>
       </c>
@@ -14585,7 +14620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>836</v>
       </c>
@@ -14611,7 +14646,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>840</v>
       </c>
@@ -14637,7 +14672,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>843</v>
       </c>
@@ -14663,7 +14698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>846</v>
       </c>
@@ -14689,7 +14724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>848</v>
       </c>
@@ -14715,7 +14750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>851</v>
       </c>
@@ -14741,7 +14776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>854</v>
       </c>
@@ -14767,7 +14802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>857</v>
       </c>
@@ -14793,7 +14828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>860</v>
       </c>
@@ -14819,7 +14854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>863</v>
       </c>
@@ -14845,7 +14880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>866</v>
       </c>
@@ -14871,7 +14906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>869</v>
       </c>
@@ -14897,7 +14932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>872</v>
       </c>
@@ -14923,7 +14958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>875</v>
       </c>
@@ -14949,7 +14984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>878</v>
       </c>
@@ -14975,7 +15010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>881</v>
       </c>
@@ -15001,7 +15036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>884</v>
       </c>
@@ -15027,7 +15062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>887</v>
       </c>
@@ -15053,7 +15088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>890</v>
       </c>
@@ -15079,7 +15114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>893</v>
       </c>
@@ -15105,7 +15140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>896</v>
       </c>
@@ -15131,7 +15166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>899</v>
       </c>
@@ -15157,7 +15192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>902</v>
       </c>
@@ -15183,7 +15218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>905</v>
       </c>
@@ -15209,7 +15244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>908</v>
       </c>
@@ -15235,7 +15270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>911</v>
       </c>
@@ -15261,7 +15296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>914</v>
       </c>
@@ -15287,7 +15322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>917</v>
       </c>
@@ -15313,7 +15348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>920</v>
       </c>
@@ -15339,7 +15374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>923</v>
       </c>
@@ -15365,7 +15400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>926</v>
       </c>
@@ -15391,7 +15426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>928</v>
       </c>
@@ -15417,7 +15452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>931</v>
       </c>
@@ -15443,7 +15478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>934</v>
       </c>
@@ -15469,7 +15504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>937</v>
       </c>
@@ -15495,7 +15530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>940</v>
       </c>
@@ -15521,7 +15556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>943</v>
       </c>
@@ -15547,7 +15582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>946</v>
       </c>
@@ -15573,7 +15608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>949</v>
       </c>
@@ -15599,7 +15634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>951</v>
       </c>
@@ -15625,7 +15660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>953</v>
       </c>
@@ -15657,7 +15692,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>959</v>
       </c>
@@ -15689,7 +15724,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>962</v>
       </c>
@@ -15721,7 +15756,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>965</v>
       </c>
@@ -15753,7 +15788,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>968</v>
       </c>
@@ -15785,7 +15820,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>971</v>
       </c>
@@ -15817,7 +15852,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>974</v>
       </c>
@@ -15849,7 +15884,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>977</v>
       </c>
@@ -15881,7 +15916,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>980</v>
       </c>
@@ -15913,7 +15948,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>983</v>
       </c>
@@ -15945,7 +15980,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>986</v>
       </c>
@@ -15977,7 +16012,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>989</v>
       </c>
@@ -16009,7 +16044,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>991</v>
       </c>
@@ -16041,7 +16076,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>994</v>
       </c>
@@ -16073,7 +16108,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>997</v>
       </c>
@@ -16105,7 +16140,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>1000</v>
       </c>
@@ -16137,7 +16172,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>1003</v>
       </c>
@@ -16169,7 +16204,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>1006</v>
       </c>
@@ -16201,7 +16236,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>1009</v>
       </c>
@@ -16233,7 +16268,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>1011</v>
       </c>
@@ -16265,7 +16300,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>1014</v>
       </c>
@@ -16297,7 +16332,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>1017</v>
       </c>
@@ -16329,7 +16364,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>1019</v>
       </c>
@@ -16361,7 +16396,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>1022</v>
       </c>
@@ -16393,7 +16428,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>1025</v>
       </c>
@@ -16425,7 +16460,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>1028</v>
       </c>
@@ -16457,7 +16492,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>1030</v>
       </c>
@@ -16489,7 +16524,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>1033</v>
       </c>
@@ -16521,7 +16556,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>1035</v>
       </c>
@@ -16553,7 +16588,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>1038</v>
       </c>
@@ -16585,7 +16620,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>1041</v>
       </c>
@@ -16617,7 +16652,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
         <v>1044</v>
       </c>
@@ -16649,7 +16684,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>1047</v>
       </c>
@@ -16681,7 +16716,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
         <v>1050</v>
       </c>
@@ -16713,7 +16748,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>1053</v>
       </c>
@@ -16745,7 +16780,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>1055</v>
       </c>
@@ -16777,7 +16812,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
         <v>1057</v>
       </c>
@@ -16809,7 +16844,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>1059</v>
       </c>
@@ -16841,7 +16876,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>1062</v>
       </c>
@@ -16873,7 +16908,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
         <v>1064</v>
       </c>
@@ -16905,7 +16940,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
         <v>1066</v>
       </c>
@@ -16937,7 +16972,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>1068</v>
       </c>
@@ -16969,7 +17004,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
         <v>1071</v>
       </c>
@@ -17001,7 +17036,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>1073</v>
       </c>
@@ -17033,7 +17068,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
         <v>1076</v>
       </c>
@@ -17065,7 +17100,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>1079</v>
       </c>
@@ -17097,7 +17132,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>1082</v>
       </c>
@@ -17129,7 +17164,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
         <v>1085</v>
       </c>
@@ -17161,7 +17196,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
         <v>1088</v>
       </c>
@@ -17193,7 +17228,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
         <v>1090</v>
       </c>
@@ -17219,7 +17254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
         <v>1093</v>
       </c>
@@ -17245,7 +17280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
         <v>1096</v>
       </c>
@@ -17271,7 +17306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
         <v>1099</v>
       </c>
@@ -17297,7 +17332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
         <v>1101</v>
       </c>
@@ -17323,7 +17358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
         <v>1104</v>
       </c>
@@ -17349,7 +17384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
         <v>1107</v>
       </c>
@@ -17375,7 +17410,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
         <v>1109</v>
       </c>
@@ -17401,7 +17436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
         <v>1111</v>
       </c>
@@ -17427,7 +17462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
         <v>1113</v>
       </c>
@@ -17453,7 +17488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
         <v>1116</v>
       </c>
@@ -17479,7 +17514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>1119</v>
       </c>
@@ -17505,7 +17540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
         <v>1121</v>
       </c>
@@ -17531,7 +17566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
         <v>1123</v>
       </c>
@@ -17557,7 +17592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>1125</v>
       </c>
@@ -17583,7 +17618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>1127</v>
       </c>
@@ -17609,7 +17644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>1130</v>
       </c>
@@ -17635,7 +17670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>1133</v>
       </c>
@@ -17661,7 +17696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>1136</v>
       </c>
@@ -17687,7 +17722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
         <v>1138</v>
       </c>
@@ -17713,7 +17748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>1140</v>
       </c>
@@ -17739,7 +17774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>1142</v>
       </c>
@@ -17765,7 +17800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
         <v>1144</v>
       </c>
@@ -17791,7 +17826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
         <v>1146</v>
       </c>
@@ -17817,7 +17852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>1148</v>
       </c>
@@ -17843,7 +17878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
         <v>1151</v>
       </c>
@@ -17869,7 +17904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>1153</v>
       </c>
@@ -17895,7 +17930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
         <v>1155</v>
       </c>
@@ -17921,7 +17956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>1157</v>
       </c>
@@ -17947,7 +17982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>1159</v>
       </c>
@@ -17973,7 +18008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>1162</v>
       </c>
@@ -17999,7 +18034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
         <v>1164</v>
       </c>
@@ -18025,7 +18060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>1167</v>
       </c>
@@ -18051,7 +18086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
         <v>1170</v>
       </c>
@@ -18077,7 +18112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>1172</v>
       </c>
@@ -18103,7 +18138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>1175</v>
       </c>
@@ -18129,7 +18164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>1178</v>
       </c>
@@ -18155,7 +18190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>1180</v>
       </c>
@@ -18181,7 +18216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>1183</v>
       </c>
@@ -18207,7 +18242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>1185</v>
       </c>
@@ -18233,7 +18268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>1187</v>
       </c>
@@ -18259,7 +18294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>1189</v>
       </c>
@@ -18285,7 +18320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>1191</v>
       </c>
@@ -18311,7 +18346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>1194</v>
       </c>
@@ -18337,7 +18372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>1197</v>
       </c>
@@ -18363,7 +18398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>1199</v>
       </c>
@@ -18389,7 +18424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>1202</v>
       </c>
@@ -18415,7 +18450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
         <v>1205</v>
       </c>
@@ -18441,7 +18476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>1207</v>
       </c>
@@ -18467,7 +18502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
         <v>1209</v>
       </c>
@@ -18493,7 +18528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
         <v>1211</v>
       </c>
@@ -18519,7 +18554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>1213</v>
       </c>
@@ -18545,7 +18580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>1215</v>
       </c>
@@ -18571,7 +18606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
         <v>1217</v>
       </c>
@@ -18597,7 +18632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>1220</v>
       </c>
@@ -18623,7 +18658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>1223</v>
       </c>
@@ -18649,7 +18684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>1226</v>
       </c>
@@ -18675,7 +18710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
         <v>1229</v>
       </c>
@@ -18701,7 +18736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>1231</v>
       </c>
@@ -18727,7 +18762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>1233</v>
       </c>
@@ -18753,7 +18788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
         <v>1236</v>
       </c>
@@ -18779,7 +18814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>1239</v>
       </c>
@@ -18805,7 +18840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
         <v>1242</v>
       </c>
@@ -18831,7 +18866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
         <v>1244</v>
       </c>
@@ -18857,7 +18892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>1246</v>
       </c>
@@ -18883,7 +18918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>1248</v>
       </c>
@@ -18909,7 +18944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>1251</v>
       </c>
@@ -18935,7 +18970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
         <v>1254</v>
       </c>
@@ -18961,7 +18996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
         <v>1256</v>
       </c>
@@ -18987,7 +19022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>1259</v>
       </c>
@@ -19013,7 +19048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
         <v>1262</v>
       </c>
@@ -19039,7 +19074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>1265</v>
       </c>
@@ -19065,7 +19100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>1267</v>
       </c>
@@ -19091,7 +19126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
         <v>1269</v>
       </c>
@@ -19117,7 +19152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>1272</v>
       </c>
@@ -19143,7 +19178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>1274</v>
       </c>
@@ -19169,7 +19204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
         <v>1276</v>
       </c>
@@ -19195,7 +19230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>1279</v>
       </c>
@@ -19221,7 +19256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>1282</v>
       </c>
@@ -19247,7 +19282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
         <v>1285</v>
       </c>
@@ -19273,7 +19308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>1287</v>
       </c>
@@ -19299,7 +19334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>1289</v>
       </c>
@@ -19325,7 +19360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
         <v>1292</v>
       </c>
@@ -19351,7 +19386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>1294</v>
       </c>
@@ -19377,7 +19412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>1296</v>
       </c>
@@ -19403,7 +19438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>1299</v>
       </c>
@@ -19429,7 +19464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
         <v>1301</v>
       </c>
@@ -19455,7 +19490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
         <v>1303</v>
       </c>
@@ -19481,7 +19516,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
         <v>1306</v>
       </c>
@@ -19507,7 +19542,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
         <v>1309</v>
       </c>
@@ -19533,7 +19568,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
         <v>1312</v>
       </c>
@@ -19559,7 +19594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
         <v>1315</v>
       </c>
@@ -19585,7 +19620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
         <v>1318</v>
       </c>
@@ -19611,7 +19646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
         <v>1320</v>
       </c>
@@ -19637,7 +19672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
         <v>1322</v>
       </c>
@@ -19663,7 +19698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
         <v>1324</v>
       </c>
@@ -19689,7 +19724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
         <v>1326</v>
       </c>
@@ -19715,7 +19750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
         <v>1328</v>
       </c>
@@ -19753,24 +19788,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -19793,7 +19828,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -19816,7 +19851,7 @@
         <v>133365526216905</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -19839,7 +19874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
@@ -19862,7 +19897,7 @@
         <v>4.6341463414634099</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
@@ -19885,7 +19920,7 @@
         <v>6.1351351351351298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -19908,7 +19943,7 @@
         <v>0.14806213966964399</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
@@ -19931,7 +19966,7 @@
         <v>1.1818502448589701</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
@@ -19954,7 +19989,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
@@ -19977,7 +20012,7 @@
         <v>1.9283718475499999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -20000,7 +20035,7 @@
         <v>0.39814163441817602</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
@@ -20023,7 +20058,7 @@
         <v>2.8365804444687E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>59</v>
       </c>
@@ -20046,7 +20081,7 @@
         <v>-1.0065865965105301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
@@ -20069,7 +20104,7 @@
         <v>-1.0065865965105301</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>73</v>
       </c>
@@ -20099,26 +20134,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -20153,7 +20188,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -20172,10 +20207,10 @@
       <c r="F2" s="24">
         <v>67.599999999999994</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>1347</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
@@ -20193,7 +20228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -20212,10 +20247,10 @@
       <c r="F3" s="24">
         <v>0.67</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="30" t="s">
         <v>1347</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="34"/>
       <c r="I3" t="s">
         <v>77</v>
       </c>
@@ -20231,7 +20266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -20250,10 +20285,10 @@
       <c r="F4" s="25">
         <v>9.9999999999999991E+28</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>1347</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I4" t="s">
@@ -20271,7 +20306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -20290,10 +20325,10 @@
       <c r="F5" s="26">
         <v>5.74</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="34"/>
       <c r="I5" t="s">
         <v>11</v>
       </c>
@@ -20321,7 +20356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -20340,10 +20375,10 @@
       <c r="F6" s="26">
         <v>100</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="35" t="s">
         <v>1342</v>
       </c>
       <c r="I6" t="s">
@@ -20370,7 +20405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
@@ -20389,10 +20424,10 @@
       <c r="F7" s="26">
         <v>4.6340000000000003</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="35"/>
       <c r="I7" t="s">
         <v>1338</v>
       </c>
@@ -20417,7 +20452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -20436,10 +20471,10 @@
       <c r="F8" s="26">
         <v>6.1349999999999998</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="35"/>
       <c r="I8" t="s">
         <v>1339</v>
       </c>
@@ -20464,7 +20499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -20483,11 +20518,11 @@
       <c r="F9" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -20506,7 +20541,7 @@
       <c r="F10" s="26">
         <v>3.64E-3</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="32" t="s">
         <v>1348</v>
       </c>
       <c r="M10" s="21" t="s">
@@ -20520,7 +20555,7 @@
       </c>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
@@ -20539,7 +20574,7 @@
       <c r="F11" s="26">
         <v>3.64E-3</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="32" t="s">
         <v>1348</v>
       </c>
       <c r="L11" s="18"/>
@@ -20554,7 +20589,7 @@
       </c>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -20573,7 +20608,7 @@
       <c r="F12" s="26">
         <v>0</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>1348</v>
       </c>
       <c r="M12" s="22" t="s">
@@ -20589,7 +20624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
@@ -20608,11 +20643,17 @@
       <c r="F13" s="26">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -20631,12 +20672,18 @@
       <c r="F14" s="26">
         <v>0</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H14" s="17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I14">
+        <f>COUNTIFS(C2:C101,"nonconvex",B2:B101,"smooth")</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -20655,12 +20702,18 @@
       <c r="F15" s="26">
         <v>0</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H15" s="17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIFS(C2:C101,"convex",B2:B101,"smooth")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
@@ -20679,12 +20732,18 @@
       <c r="F16" s="26">
         <v>0.39789999999999998</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I16">
+        <f>COUNTIFS(C2:C101,"nonconvex",B2:B101,"nonsmooth")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -20703,12 +20762,18 @@
       <c r="F17" s="24">
         <v>4.79535</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="32" t="s">
         <v>1347</v>
       </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I17">
+        <f>COUNTIFS(C2:C101,"convex",B2:B101,"nonsmooth")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
@@ -20727,12 +20792,12 @@
       <c r="F18" s="25">
         <v>1000000000000</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="33" t="s">
         <v>1347</v>
       </c>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
@@ -20751,11 +20816,11 @@
       <c r="F19" s="26">
         <v>88966</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
@@ -20774,11 +20839,11 @@
       <c r="F20" s="26">
         <v>-1.02</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
@@ -20797,11 +20862,11 @@
       <c r="F21" s="26">
         <v>-1.03</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
@@ -20820,11 +20885,11 @@
       <c r="F22" s="24">
         <v>14.879</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
@@ -20843,11 +20908,11 @@
       <c r="F23" s="26">
         <v>-35.795999999999999</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -20866,11 +20931,11 @@
       <c r="F24" s="24">
         <v>48.55</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>73</v>
       </c>
@@ -20889,11 +20954,11 @@
       <c r="F25" s="26">
         <v>0.2</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>954</v>
       </c>
@@ -20912,11 +20977,11 @@
       <c r="F26" s="24">
         <v>3.41</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>960</v>
       </c>
@@ -20935,11 +21000,11 @@
       <c r="F27" s="24">
         <v>383.1</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>963</v>
       </c>
@@ -20958,11 +21023,11 @@
       <c r="F28" s="24">
         <v>0.254</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>966</v>
       </c>
@@ -20981,11 +21046,11 @@
       <c r="F29" s="24">
         <v>2</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>969</v>
       </c>
@@ -21004,11 +21069,11 @@
       <c r="F30" s="25">
         <v>1E+80</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>972</v>
       </c>
@@ -21027,11 +21092,11 @@
       <c r="F31" s="24">
         <v>-10000.4</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>975</v>
       </c>
@@ -21050,11 +21115,11 @@
       <c r="F32" s="24">
         <v>1.7178199999999999</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>978</v>
       </c>
@@ -21073,11 +21138,11 @@
       <c r="F33" s="24">
         <v>0.87</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>981</v>
       </c>
@@ -21096,11 +21161,11 @@
       <c r="F34" s="25">
         <v>1E+80</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>984</v>
       </c>
@@ -21119,11 +21184,11 @@
       <c r="F35" s="24">
         <v>0.25140000000000001</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>987</v>
       </c>
@@ -21142,11 +21207,11 @@
       <c r="F36" s="24">
         <v>1177</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>990</v>
       </c>
@@ -21165,11 +21230,11 @@
       <c r="F37" s="26">
         <v>0</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>992</v>
       </c>
@@ -21188,11 +21253,11 @@
       <c r="F38" s="24">
         <v>6210</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>995</v>
       </c>
@@ -21211,11 +21276,11 @@
       <c r="F39" s="24">
         <v>1064</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>998</v>
       </c>
@@ -21234,11 +21299,11 @@
       <c r="F40" s="26">
         <v>54.598199999999999</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>1001</v>
       </c>
@@ -21257,11 +21322,11 @@
       <c r="F41" s="26">
         <v>264.40600000000001</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>1004</v>
       </c>
@@ -21280,11 +21345,11 @@
       <c r="F42" s="24">
         <v>0.5</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>1007</v>
       </c>
@@ -21303,11 +21368,11 @@
       <c r="F43" s="24">
         <v>0.36</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>1010</v>
       </c>
@@ -21326,11 +21391,11 @@
       <c r="F44" s="26">
         <v>0</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>1012</v>
       </c>
@@ -21349,11 +21414,11 @@
       <c r="F45" s="26">
         <v>4</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>1015</v>
       </c>
@@ -21372,11 +21437,11 @@
       <c r="F46" s="24">
         <v>-27.69</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>1018</v>
       </c>
@@ -21395,11 +21460,11 @@
       <c r="F47" s="24">
         <v>3.34</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>1020</v>
       </c>
@@ -21418,11 +21483,11 @@
       <c r="F48" s="24">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>1023</v>
       </c>
@@ -21441,11 +21506,11 @@
       <c r="F49" s="25">
         <v>1E+80</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>1026</v>
       </c>
@@ -21464,11 +21529,11 @@
       <c r="F50" s="24">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>404</v>
       </c>
@@ -21487,11 +21552,11 @@
       <c r="F51" s="24">
         <v>1.302</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>406</v>
       </c>
@@ -21510,11 +21575,11 @@
       <c r="F52" s="24">
         <v>14.321999999999999</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>408</v>
       </c>
@@ -21533,11 +21598,11 @@
       <c r="F53" s="24">
         <v>2.02</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>410</v>
       </c>
@@ -21556,11 +21621,11 @@
       <c r="F54" s="24">
         <v>2.7480000000000002</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>412</v>
       </c>
@@ -21579,11 +21644,11 @@
       <c r="F55" s="24">
         <v>28.78</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G55" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>414</v>
       </c>
@@ -21602,11 +21667,11 @@
       <c r="F56" s="24">
         <v>3.472</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>416</v>
       </c>
@@ -21625,11 +21690,11 @@
       <c r="F57" s="24">
         <v>4.1950000000000003</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>418</v>
       </c>
@@ -21648,11 +21713,11 @@
       <c r="F58" s="24">
         <v>43</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>420</v>
       </c>
@@ -21671,11 +21736,11 @@
       <c r="F59" s="24">
         <v>4.9180000000000001</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>422</v>
       </c>
@@ -21694,11 +21759,11 @@
       <c r="F60" s="24">
         <v>5.6420000000000003</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>424</v>
       </c>
@@ -21717,11 +21782,11 @@
       <c r="F61" s="24">
         <v>6.3650000000000002</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>426</v>
       </c>
@@ -21740,11 +21805,11 @@
       <c r="F62" s="24">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G62" s="34" t="s">
+      <c r="G62" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>428</v>
       </c>
@@ -21763,11 +21828,11 @@
       <c r="F63" s="24">
         <v>7.08</v>
       </c>
-      <c r="G63" s="34" t="s">
+      <c r="G63" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>430</v>
       </c>
@@ -21786,11 +21851,11 @@
       <c r="F64" s="24">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="G64" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>436</v>
       </c>
@@ -21809,11 +21874,11 @@
       <c r="F65" s="24">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G65" s="34" t="s">
+      <c r="G65" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>439</v>
       </c>
@@ -21832,11 +21897,11 @@
       <c r="F66" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>442</v>
       </c>
@@ -21855,11 +21920,11 @@
       <c r="F67" s="24">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="G67" s="34" t="s">
+      <c r="G67" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>445</v>
       </c>
@@ -21878,11 +21943,11 @@
       <c r="F68" s="24">
         <v>9.1959999999999993E-3</v>
       </c>
-      <c r="G68" s="34" t="s">
+      <c r="G68" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>1029</v>
       </c>
@@ -21899,11 +21964,11 @@
         <v>956</v>
       </c>
       <c r="F69" s="27"/>
-      <c r="G69" s="34" t="s">
+      <c r="G69" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>1031</v>
       </c>
@@ -21922,11 +21987,11 @@
       <c r="F70" s="27">
         <v>0</v>
       </c>
-      <c r="G70" s="34" t="s">
+      <c r="G70" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>1034</v>
       </c>
@@ -21945,11 +22010,11 @@
       <c r="F71" s="27">
         <v>-27</v>
       </c>
-      <c r="G71" s="34" t="s">
+      <c r="G71" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>1036</v>
       </c>
@@ -21968,11 +22033,11 @@
       <c r="F72" s="27">
         <v>30</v>
       </c>
-      <c r="G72" s="34" t="s">
+      <c r="G72" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>1039</v>
       </c>
@@ -21991,11 +22056,11 @@
       <c r="F73" s="27">
         <v>19</v>
       </c>
-      <c r="G73" s="34" t="s">
+      <c r="G73" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>1042</v>
       </c>
@@ -22012,11 +22077,11 @@
         <v>956</v>
       </c>
       <c r="F74" s="29"/>
-      <c r="G74" s="34" t="s">
+      <c r="G74" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>1045</v>
       </c>
@@ -22035,11 +22100,11 @@
       <c r="F75" s="24">
         <v>1.2E-2</v>
       </c>
-      <c r="G75" s="34" t="s">
+      <c r="G75" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>1048</v>
       </c>
@@ -22058,11 +22123,11 @@
       <c r="F76" s="24">
         <v>15.54</v>
       </c>
-      <c r="G76" s="34" t="s">
+      <c r="G76" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>1051</v>
       </c>
@@ -22081,11 +22146,11 @@
       <c r="F77" s="24">
         <v>20.417999999999999</v>
       </c>
-      <c r="G77" s="34" t="s">
+      <c r="G77" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1054</v>
       </c>
@@ -22104,11 +22169,11 @@
       <c r="F78" s="26">
         <v>0</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="G78" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1056</v>
       </c>
@@ -22127,11 +22192,11 @@
       <c r="F79" s="26">
         <v>0</v>
       </c>
-      <c r="G79" s="34" t="s">
+      <c r="G79" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>1058</v>
       </c>
@@ -22150,11 +22215,11 @@
       <c r="F80" s="26">
         <v>0</v>
       </c>
-      <c r="G80" s="34" t="s">
+      <c r="G80" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>1060</v>
       </c>
@@ -22173,11 +22238,11 @@
       <c r="F81" s="24">
         <v>0</v>
       </c>
-      <c r="G81" s="34" t="s">
+      <c r="G81" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>1063</v>
       </c>
@@ -22196,11 +22261,11 @@
       <c r="F82" s="26">
         <v>0</v>
       </c>
-      <c r="G82" s="34" t="s">
+      <c r="G82" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>1065</v>
       </c>
@@ -22219,11 +22284,11 @@
       <c r="F83" s="26">
         <v>0</v>
       </c>
-      <c r="G83" s="34" t="s">
+      <c r="G83" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>1067</v>
       </c>
@@ -22242,11 +22307,11 @@
       <c r="F84" s="26">
         <v>0</v>
       </c>
-      <c r="G84" s="34" t="s">
+      <c r="G84" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>1069</v>
       </c>
@@ -22265,11 +22330,11 @@
       <c r="F85" s="24">
         <v>9720</v>
       </c>
-      <c r="G85" s="34" t="s">
+      <c r="G85" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>1072</v>
       </c>
@@ -22288,11 +22353,11 @@
       <c r="F86" s="24">
         <v>3.51</v>
       </c>
-      <c r="G86" s="34" t="s">
+      <c r="G86" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>1074</v>
       </c>
@@ -22311,11 +22376,11 @@
       <c r="F87" s="24">
         <v>3.55</v>
       </c>
-      <c r="G87" s="34" t="s">
+      <c r="G87" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>1077</v>
       </c>
@@ -22334,11 +22399,11 @@
       <c r="F88" s="24">
         <v>-2.39</v>
       </c>
-      <c r="G88" s="34" t="s">
+      <c r="G88" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>1080</v>
       </c>
@@ -22357,11 +22422,11 @@
       <c r="F89" s="24">
         <v>49</v>
       </c>
-      <c r="G89" s="34" t="s">
+      <c r="G89" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>1083</v>
       </c>
@@ -22380,11 +22445,11 @@
       <c r="F90" s="26">
         <v>-1.3</v>
       </c>
-      <c r="G90" s="34" t="s">
+      <c r="G90" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>1086</v>
       </c>
@@ -22403,11 +22468,11 @@
       <c r="F91" s="24">
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="G91" s="34" t="s">
+      <c r="G91" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>1089</v>
       </c>
@@ -22426,11 +22491,11 @@
       <c r="F92" s="24">
         <v>-0.59799999999999998</v>
       </c>
-      <c r="G92" s="34" t="s">
+      <c r="G92" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>1112</v>
       </c>
@@ -22449,11 +22514,11 @@
       <c r="F93" s="26">
         <v>0</v>
       </c>
-      <c r="G93" s="34" t="s">
+      <c r="G93" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>1114</v>
       </c>
@@ -22472,11 +22537,11 @@
       <c r="F94" s="24">
         <v>50.08</v>
       </c>
-      <c r="G94" s="34" t="s">
+      <c r="G94" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>1117</v>
       </c>
@@ -22495,11 +22560,11 @@
       <c r="F95" s="26">
         <v>0.18360000000000001</v>
       </c>
-      <c r="G95" s="34" t="s">
+      <c r="G95" s="32" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1120</v>
       </c>
@@ -22518,11 +22583,11 @@
       <c r="F96" s="24">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="G96" s="34" t="s">
+      <c r="G96" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>1122</v>
       </c>
@@ -22541,11 +22606,11 @@
       <c r="F97" s="28">
         <v>8.1399999999999996E-7</v>
       </c>
-      <c r="G97" s="35" t="s">
+      <c r="G97" s="33" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>1124</v>
       </c>
@@ -22564,11 +22629,11 @@
       <c r="F98" s="28">
         <v>1.91E-5</v>
       </c>
-      <c r="G98" s="35" t="s">
+      <c r="G98" s="33" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>1126</v>
       </c>
@@ -22587,11 +22652,11 @@
       <c r="F99" s="24">
         <v>1</v>
       </c>
-      <c r="G99" s="34" t="s">
+      <c r="G99" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>1128</v>
       </c>
@@ -22610,11 +22675,11 @@
       <c r="F100" s="24">
         <v>1</v>
       </c>
-      <c r="G100" s="34" t="s">
+      <c r="G100" s="32" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>1131</v>
       </c>
@@ -22633,26 +22698,26 @@
       <c r="F101" s="24">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G101" s="32" t="s">
+      <c r="G101" s="30" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E104" s="9"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E106" s="9"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E107" s="9"/>
     </row>
   </sheetData>
